--- a/Test_Report/excel_report/Test_Case.xlsx
+++ b/Test_Report/excel_report/Test_Case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="双屏机接口冒烟2" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POS机接口冒烟" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="商户后台接口冒烟" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="商户后台接口冒烟2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -156,7 +157,31 @@
     <font>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF2B9E54"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <color rgb="FFFF4588"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF2B9E54"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
@@ -206,9 +231,6 @@
     </font>
     <font>
       <color rgb="00000000"/>
-    </font>
-    <font>
-      <color rgb="00FF4588"/>
     </font>
   </fonts>
   <fills count="3">
@@ -319,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,6 +512,9 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,43 +524,58 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -549,16 +589,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,13 +1014,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="76" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>登录接口校验</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="4" t="n"/>
@@ -1010,9 +1047,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
@@ -3882,8 +3919,8 @@
     <col width="10.5" customWidth="1" style="9" min="23" max="23"/>
     <col width="15.5" customWidth="1" style="9" min="24" max="24"/>
     <col width="11.83203125" customWidth="1" style="9" min="25" max="25"/>
-    <col width="10.83203125" customWidth="1" style="9" min="26" max="85"/>
-    <col width="10.83203125" customWidth="1" style="9" min="86" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="9" min="26" max="95"/>
+    <col width="10.83203125" customWidth="1" style="9" min="96" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="28">
@@ -3892,13 +3929,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="78" t="inlineStr">
+      <c r="B1" s="84" t="inlineStr">
         <is>
           <t>校验价立减创建相关</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="24" t="n"/>
@@ -3927,9 +3964,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="24" t="n"/>
@@ -4662,8 +4699,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="9" min="16" max="16"/>
     <col width="17" customWidth="1" style="9" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="9" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="9" min="19" max="77"/>
-    <col width="10.83203125" customWidth="1" style="9" min="78" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="9" min="19" max="87"/>
+    <col width="10.83203125" customWidth="1" style="9" min="88" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="28">
@@ -4672,13 +4709,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="76" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>登录接口校验</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="27" t="n"/>
@@ -4700,9 +4737,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="27" t="n"/>
@@ -5620,8 +5657,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelCol="0"/>
@@ -5643,8 +5680,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="9" min="16" max="16"/>
     <col width="17" customWidth="1" style="9" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="9" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="9" min="19" max="68"/>
-    <col width="10.83203125" customWidth="1" style="9" min="69" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="9" min="19" max="78"/>
+    <col width="10.83203125" customWidth="1" style="9" min="79" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="28">
@@ -5653,13 +5690,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="76" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>双屏机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="27" t="n"/>
@@ -5685,9 +5722,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="27" t="n"/>
@@ -5839,11 +5876,7 @@
           <t>{"username":"hang0813","password":"wh19940813","device":[{"regid":"1507bfd3f74e1e1c2bf","type":"1"},{"regid":"0690147908a7cae175df42c40a855cae0d1e","type":"5"}]}</t>
         </is>
       </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>{"username":"hang0813002","password":"wh0813"}</t>
-        </is>
-      </c>
+      <c r="I4" s="7" t="n"/>
       <c r="J4" s="10" t="n"/>
       <c r="K4" s="10" t="n"/>
       <c r="L4" s="10" t="n"/>
@@ -5852,23 +5885,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="80" t="inlineStr">
+      <c r="N4" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'id': '4241', 'admin_name': 'hang0813002', 'real_name': '王杭-南山第二', 'admin_type': '2', 'mobile': '15672655599', 'last_login_time': '1606739854', 'create_time': '1593345138', 'update_time': '1606739854', 'role_list': [{'id': '41', 'type': '2', 'merchant_type': '1001', 'merchant_id': '0', 'name': '管理员', 'parent_id': '0', 'description': '权限说明：拥有油站下的全部数据查看权限及功能修改权限', 'status': '1', 'sort_num': '1', 'left_key': '0', 'level': '0', 'icon_url': 'role-card-station-management', 'default_id': '0', 'create_time': '1564058868', 'menu_list': [{'menu_id': '194', 'menu_type': '5', 'parent_id': '144', 'menu_name': 'OS', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '195', 'menu_type': '5', 'parent_id': '194', 'menu_name': '数据', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '196', 'menu_type': '5', 'parent_id': '194', 'menu_name': '收银', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '197', 'menu_type': '5', 'parent_id': '194', 'menu_name': '订单', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '198', 'menu_type': '5', 'parent_id': '194', 'menu_name': '班结', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '199', 'menu_type': '5', 'parent_id': '194', 'menu_name': '油品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '200', 'menu_type': '5', 'parent_id': '194', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': '', 'is_show': '1'}, {'menu_id': '201', 'menu_type': '5', 'parent_id': '194', 'menu_name': '设置', 'menu_path': '', 'vue_path': '', 'is_show': '1'}]}], 'merchant_info': {'merchant_id': '10002', 'merchant_type': '1001', 'company_id': '1', 'company_name': '总集团', 'full_name': '深圳南山第二加油站', 'group_id': '14', 'merchant_name': '南山第贰加油站', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png', 'banner_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png', 'contact_name': '黄先生', 'contact_tel': '13812342783', 'province_id': '1', 'city_id': '59457', 'region_id': '41', 'status': '1', 'open_status': '1', 'address': '北京市北京市朝阳区机场路', 'longitude': '116.6027900', 'latitude': '40.0803200', 'distance': 0, 'business_hours': '00:00:00 - 23:59:59', 'user_id': '0', 'create_time': '0', 'online_time': '1589531263', 'update_time': '1606717582', 'other': 'null', 'all_app_id': ['fb1de4489b67b8cb', 'wx73a8de5287159207', '2019112069300474'], 'mini_app_id': 'fb1de4489b67b8cb', 'qrcode_url': [{'type': 2, 'qrcode_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0'}], 'group': {'id': '1', 'group_name': '第一集团', 'company_id': '0', 'parent_id': '0', 'root_id': '1', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/01/04/01/f5f236d540da065c6557d399a259.jpg', 'description': '', 'contact_name': ''}}, 'token': '9DD9B8E5FC25F9973C4B631FFCC97196', 'merchant_status': '1', 'invoice': {'id': '2', 'merchant_id': '10002', 'legal_person_name': '222', 'valid_day': '1', 'entrance': '1,2,3', 'ticket_type': '1,2', 'amount_type': '2', 'paper_stock': '0', 'card_id': 'pkOfe59l8E90UPoq1KwJs5Jx39o0', 'is_register': '0', 'recharge_product': '国VI LNG', 'license_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/01/14/15/3c035e84012939695ddec7aedbb7.jpeg', 's_pappid': '', 'create_time': '1578986348', 'update_time': '1606716640'}, 'pay_url': 'https://api.shylwlkj.com'}, 'request_id': '315fd717ead2379182e89ff59a31182f'}</t>
         </is>
       </c>
-      <c r="O4" s="81" t="inlineStr">
+      <c r="O4" s="64" t="inlineStr">
         <is>
           <t>0.759</t>
         </is>
       </c>
-      <c r="P4" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="79" t="inlineStr"/>
-      <c r="R4" s="79" t="inlineStr">
+      <c r="P4" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="62" t="n"/>
+      <c r="R4" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -5924,23 +5957,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="80" t="inlineStr">
+      <c r="N5" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132440', 'order_type': '16', 'order_code': '16202012019028911216', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758902', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758903', 'create_time': '1606758902', 'recommand_id': 0, 'items': [{'item_id': '18132369', 'order_id': '18132440', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17793990'}], 'payment_info': [{'id': '17369494', 'order_id': '17369494', 'order_code': '16202012019028911216', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019028911216', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758902', 'notify_time': '1606758902', 'platform': '4100', 'other': ''}]}], 'request_id': 'd4b80c14255157481de891670a199977'}</t>
         </is>
       </c>
-      <c r="O5" s="81" t="inlineStr">
+      <c r="O5" s="64" t="inlineStr">
         <is>
           <t>0.834</t>
         </is>
       </c>
-      <c r="P5" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="79" t="inlineStr"/>
-      <c r="R5" s="79" t="inlineStr">
+      <c r="P5" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="62" t="n"/>
+      <c r="R5" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -5995,23 +6028,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="80" t="inlineStr">
+      <c r="N6" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'gun_num': 1, 'list': [{'id': 243452, 'order_sn': '201130093404718655', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506885, 'pump_code_end': 1506905, 'pump_added_value': 20, 'mdc_ttc': 13928, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700044, 'first_record_time': '2020-11-30 09:34:04', 'update_time': 1606700044, 'update_date': '2020-11-30 09:34:04', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243452, 'push_command': '65001', 'type': 2}, {'id': 243455, 'order_sn': '201130093404720473', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506925, 'pump_code_end': 1506945, 'pump_added_value': 20, 'mdc_ttc': 13930, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700044, 'first_record_time': '2020-11-30 09:34:04', 'update_time': 1606700044, 'update_date': '2020-11-30 09:34:04', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243455, 'push_command': '65001', 'type': 2}, {'id': 243450, 'order_sn': '201130093403080163', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506825, 'pump_code_end': 1506845, 'pump_added_value': 20, 'mdc_ttc': 13925, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700043, 'first_record_time': '2020-11-30 09:34:03', 'update_time': 1606700043, 'update_date': '2020-11-30 09:34:03', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243450, 'push_command': '65001', 'type': 2}, {'id': 243451, 'order_sn': '201130093403553441', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506845, 'pump_code_end': 1506865, 'pump_added_value': 20, 'mdc_ttc': 13926, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700043, 'first_record_time': '2020-11-30 09:34:03', 'update_time': 1606700043, 'update_date': '2020-11-30 09:34:03', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243451, 'push_command': '65001', 'type': 2}, {'id': 243453, 'order_sn': '201130093404238161', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506865, 'pump_code_end': 1506885, 'pump_added_value': 20, 'mdc_ttc': 13927, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700043, 'first_record_time': '2020-11-30 09:34:04', 'update_time': 1606700043, 'update_date': '2020-11-30 09:34:04', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243453, 'push_command': '65001', 'type': 2}, {'id': 243446, 'order_sn': '201130093401984435', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506529, 'pump_code_end': 1506745, 'pump_added_value': 216, 'mdc_ttc': 13921, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 1100, 'volume': 216, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700042, 'first_record_time': '2020-11-30 09:34:01', 'update_time': 1606700042, 'update_date': '2020-11-30 09:34:01', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243446, 'push_command': '65001', 'type': 2}, {'id': 243447, 'order_sn': '201130093402929865', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506745, 'pump_code_end': 1506765, 'pump_added_value': 20, 'mdc_ttc': 13922, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700042, 'first_record_time': '2020-11-30 09:34:02', 'update_time': 1606700042, 'update_date': '2020-11-30 09:34:02', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243447, 'push_command': '65001', 'type': 2}, {'id': 243448, 'order_sn': '201130093402903241', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506765, 'pump_code_end': 1506785, 'pump_added_value': 20, 'mdc_ttc': 13923, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700042, 'first_record_time': '2020-11-30 09:34:02', 'update_time': 1606700042, 'update_date': '2020-11-30 09:34:02', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243448, 'push_command': '65001', 'type': 2}, {'id': 243444, 'order_sn': '201130093401870586', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506489, 'pump_code_end': 1506509, 'pump_added_value': 20, 'mdc_ttc': 13919, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700041, 'first_record_time': '2020-11-30 09:34:01', 'update_time': 1606700041, 'update_date': '2020-11-30 09:34:01', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243444, 'push_command': '65001', 'type': 2}, {'id': 243445, 'order_sn': '201130093401320589', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506509, 'pump_code_end': 1506529, 'pump_added_value': 20, 'mdc_ttc': 13920, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700041, 'first_record_time': '2020-11-30 09:34:01', 'update_time': 1606700041, 'update_date': '2020-11-30 09:34:01', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243445, 'push_command': '65001', 'type': 2}, {'id': 243441, 'order_sn': '201130093358412934', 'box_id': 'T229206U40168', 'order_code': '', 'user_id': 0, 'user_coupon_id': 0, 'merchant_id': 10002, 'merchant_type': 1001, 'price': 509, 'gun_num': 1, 'pump_code_start': 1506469, 'pump_code_end': 1506489, 'pump_added_value': 20, 'mdc_ttc': 13918, 'goods_name': '98#车用汽油', 'energy_number': '98', 'energy_id': 3, 'amount': 100, 'volume': 20, 'order_type': 1, 'is_combine': 1, 'lock_source': 0, 'status': 1, 'create_time': 1606700038, 'first_record_time': '2020-11-30 09:33:58', 'update_time': 1606700038, 'update_date': '2020-11-30 09:33:58', 'is_delete': 0, 'online_pay_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;m=10002&amp;a=pay', 'box_order': 243441, 'push_command': '65001', 'type': 2}]}], 'request_id': 'e7857aa666449697499c0a3f4486dfba'}</t>
         </is>
       </c>
-      <c r="O6" s="81" t="inlineStr">
+      <c r="O6" s="64" t="inlineStr">
         <is>
           <t>0.427</t>
         </is>
       </c>
-      <c r="P6" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="79" t="inlineStr"/>
-      <c r="R6" s="79" t="inlineStr">
+      <c r="P6" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="62" t="n"/>
+      <c r="R6" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6071,23 +6104,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="80" t="inlineStr">
+      <c r="N7" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132443', 'order_type': '16', 'order_code': '16202012019060179332', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758906', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758906', 'create_time': '1606758906', 'recommand_id': 0, 'items': [{'item_id': '18132372', 'order_id': '18132443', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.200000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17793993'}], 'payment_info': [{'id': '17369495', 'order_id': '17369495', 'order_code': '16202012019060179332', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019060179332', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758906', 'notify_time': '1606758906', 'platform': '4100', 'other': ''}]}], 'request_id': '957a24a9b3bcbf72fba80ec0d888ad7c'}</t>
         </is>
       </c>
-      <c r="O7" s="81" t="inlineStr">
+      <c r="O7" s="64" t="inlineStr">
         <is>
           <t>0.912</t>
         </is>
       </c>
-      <c r="P7" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="79" t="inlineStr"/>
-      <c r="R7" s="79" t="inlineStr">
+      <c r="P7" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="62" t="n"/>
+      <c r="R7" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6147,23 +6180,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="80" t="inlineStr">
+      <c r="N8" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132445', 'order_type': '16', 'order_code': '16202012019088337121', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758908', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758908', 'create_time': '1606758908', 'recommand_id': 0, 'items': [{'item_id': '18132374', 'order_id': '18132445', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.200000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17793995'}], 'payment_info': [{'id': '17369498', 'order_id': '17369498', 'order_code': '16202012019088337121', 'payment_id': '45', 'channel_id': '45', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019088337121', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758908', 'notify_time': '1606758908', 'platform': '4100', 'other': ''}]}], 'request_id': '399b6453cdf11a59dc4e6916917e74a8'}</t>
         </is>
       </c>
-      <c r="O8" s="82" t="inlineStr">
+      <c r="O8" s="65" t="inlineStr">
         <is>
           <t>1.093</t>
         </is>
       </c>
-      <c r="P8" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="79" t="inlineStr"/>
-      <c r="R8" s="79" t="inlineStr">
+      <c r="P8" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="62" t="n"/>
+      <c r="R8" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6223,23 +6256,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="80" t="inlineStr">
+      <c r="N9" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132446', 'order_type': '16', 'order_code': '16202012019116467575', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758911', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758911', 'create_time': '1606758911', 'recommand_id': 0, 'items': [{'item_id': '18132375', 'order_id': '18132446', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.200000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17793996'}], 'payment_info': [{'id': '17369499', 'order_id': '17369499', 'order_code': '16202012019116467575', 'payment_id': '41', 'channel_id': '41', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019116467575', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758911', 'notify_time': '1606758911', 'platform': '4100', 'other': ''}]}], 'request_id': '8a06b9c83d83d789023c378cf1979ca7'}</t>
         </is>
       </c>
-      <c r="O9" s="82" t="inlineStr">
+      <c r="O9" s="65" t="inlineStr">
         <is>
           <t>1.108</t>
         </is>
       </c>
-      <c r="P9" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="79" t="inlineStr"/>
-      <c r="R9" s="79" t="inlineStr">
+      <c r="P9" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="62" t="n"/>
+      <c r="R9" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6299,23 +6332,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="80" t="inlineStr">
+      <c r="N10" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132447', 'order_type': '16', 'order_code': '16202012019145182067', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758914', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758914', 'create_time': '1606758914', 'recommand_id': 0, 'items': [{'item_id': '18132376', 'order_id': '18132447', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.200000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17793997'}], 'payment_info': [{'id': '17369501', 'order_id': '17369501', 'order_code': '16202012019145182067', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019145182067', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758914', 'notify_time': '1606758914', 'platform': '4100', 'other': ''}]}], 'request_id': '474d41f3b9da5386afc08960fa7c984c'}</t>
         </is>
       </c>
-      <c r="O10" s="81" t="inlineStr">
+      <c r="O10" s="64" t="inlineStr">
         <is>
           <t>0.907</t>
         </is>
       </c>
-      <c r="P10" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="79" t="inlineStr"/>
-      <c r="R10" s="79" t="inlineStr">
+      <c r="P10" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="62" t="n"/>
+      <c r="R10" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6375,23 +6408,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="80" t="inlineStr">
+      <c r="N11" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132449', 'order_type': '16', 'order_code': '16202012019171432511', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758917', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758917', 'create_time': '1606758917', 'recommand_id': 0, 'items': [{'item_id': '18132378', 'order_id': '18132449', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.200000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17793999'}], 'payment_info': [{'id': '17369502', 'order_id': '17369502', 'order_code': '16202012019171432511', 'payment_id': '43', 'channel_id': '43', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019171432511', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758917', 'notify_time': '1606758917', 'platform': '4100', 'other': ''}]}], 'request_id': '7152db5ad625764734d2aa57d4539191'}</t>
         </is>
       </c>
-      <c r="O11" s="81" t="inlineStr">
+      <c r="O11" s="64" t="inlineStr">
         <is>
           <t>0.853</t>
         </is>
       </c>
-      <c r="P11" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="79" t="inlineStr"/>
-      <c r="R11" s="79" t="inlineStr">
+      <c r="P11" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="62" t="n"/>
+      <c r="R11" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6451,23 +6484,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N12" s="80" t="inlineStr">
+      <c r="N12" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132451', 'order_type': '16', 'order_code': '16202012019198243731', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '1100', 'order_amount': '1100', 'pay_money': '1100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758919', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758919', 'create_time': '1606758919', 'recommand_id': 0, 'items': [{'item_id': '18132380', 'order_id': '18132451', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '2.160000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '1100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17794001'}], 'payment_info': [{'id': '17369504', 'order_id': '17369504', 'order_code': '16202012019198243731', 'payment_id': '44', 'channel_id': '44', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019198243731', 'out_trade_no': '', 'total_fee': '1100', 'pay_fee': '1100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758919', 'notify_time': '1606758919', 'platform': '4100', 'other': ''}]}], 'request_id': '59bce406a116071ac4c8f7d6863ebfd3'}</t>
         </is>
       </c>
-      <c r="O12" s="81" t="inlineStr">
+      <c r="O12" s="64" t="inlineStr">
         <is>
           <t>0.912</t>
         </is>
       </c>
-      <c r="P12" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q12" s="79" t="inlineStr"/>
-      <c r="R12" s="79" t="inlineStr">
+      <c r="P12" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="62" t="n"/>
+      <c r="R12" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6523,23 +6556,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N13" s="80" t="inlineStr">
+      <c r="N13" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132453', 'order_type': '16', 'order_code': '16202012019219654099', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '10', 'order_amount': '10', 'pay_money': '10', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758921', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758922', 'create_time': '1606758921', 'recommand_id': 0, 'items': [{'item_id': '18132382', 'order_id': '18132453', 'goods_type': '40', 'category_id': '0', 'goods_id': '0', 'goods_name': '', 'goods_sn': '', 'goods_number': '0.000000', 'market_price': '0', 'goods_price': '0', 'actual_price': '0', 'contract_price': '0', 'subtotal': '10', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '0', 'energy_number': '', 'gun_type': '0', 'gun_id': '0', 'gun_number': '0', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17794003'}], 'payment_info': [{'id': '17369505', 'order_id': '17369505', 'order_code': '16202012019219654099', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019219654099', 'out_trade_no': '', 'total_fee': '10', 'pay_fee': '10', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758921', 'notify_time': '1606758921', 'platform': '4100', 'other': ''}]}], 'request_id': '0922c4ddd458c4381c5d734e9013121c'}</t>
         </is>
       </c>
-      <c r="O13" s="81" t="inlineStr">
+      <c r="O13" s="64" t="inlineStr">
         <is>
           <t>0.818</t>
         </is>
       </c>
-      <c r="P13" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q13" s="79" t="inlineStr"/>
-      <c r="R13" s="79" t="inlineStr">
+      <c r="P13" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q13" s="62" t="n"/>
+      <c r="R13" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6599,23 +6632,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N14" s="80" t="inlineStr">
+      <c r="N14" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '0ed29cee9f5424f496ce9227a946c729'}</t>
         </is>
       </c>
-      <c r="O14" s="81" t="inlineStr">
+      <c r="O14" s="64" t="inlineStr">
         <is>
           <t>0.378</t>
         </is>
       </c>
-      <c r="P14" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q14" s="79" t="inlineStr"/>
-      <c r="R14" s="79" t="inlineStr">
+      <c r="P14" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q14" s="62" t="n"/>
+      <c r="R14" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6675,23 +6708,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N15" s="80" t="inlineStr">
+      <c r="N15" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '14df8a227bb3155ef1ab47035541028d'}</t>
         </is>
       </c>
-      <c r="O15" s="81" t="inlineStr">
+      <c r="O15" s="64" t="inlineStr">
         <is>
           <t>0.397</t>
         </is>
       </c>
-      <c r="P15" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q15" s="79" t="inlineStr"/>
-      <c r="R15" s="79" t="inlineStr">
+      <c r="P15" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q15" s="62" t="n"/>
+      <c r="R15" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6751,23 +6784,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N16" s="80" t="inlineStr">
+      <c r="N16" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': '6e33f7c6f3d1afc09bef10890d3f3b47'}</t>
         </is>
       </c>
-      <c r="O16" s="81" t="inlineStr">
+      <c r="O16" s="64" t="inlineStr">
         <is>
           <t>0.393</t>
         </is>
       </c>
-      <c r="P16" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q16" s="79" t="inlineStr"/>
-      <c r="R16" s="79" t="inlineStr">
+      <c r="P16" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q16" s="62" t="n"/>
+      <c r="R16" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6827,23 +6860,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N17" s="80" t="inlineStr">
+      <c r="N17" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'e037467c8f89ff2e90990ebbc09db735'}</t>
         </is>
       </c>
-      <c r="O17" s="81" t="inlineStr">
+      <c r="O17" s="64" t="inlineStr">
         <is>
           <t>0.379</t>
         </is>
       </c>
-      <c r="P17" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q17" s="79" t="inlineStr"/>
-      <c r="R17" s="79" t="inlineStr">
+      <c r="P17" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q17" s="62" t="n"/>
+      <c r="R17" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6903,23 +6936,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N18" s="80" t="inlineStr">
+      <c r="N18" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'ae53d2d8e138e849c3c70bb4a5b339c7'}</t>
         </is>
       </c>
-      <c r="O18" s="81" t="inlineStr">
+      <c r="O18" s="64" t="inlineStr">
         <is>
           <t>0.330</t>
         </is>
       </c>
-      <c r="P18" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q18" s="79" t="inlineStr"/>
-      <c r="R18" s="79" t="inlineStr">
+      <c r="P18" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q18" s="62" t="n"/>
+      <c r="R18" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -6979,23 +7012,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N19" s="80" t="inlineStr">
+      <c r="N19" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '批量结算提交成功', 'data': None, 'request_id': 'b5ed51e3143cf23a59ec0c0e17443f6a'}</t>
         </is>
       </c>
-      <c r="O19" s="81" t="inlineStr">
+      <c r="O19" s="64" t="inlineStr">
         <is>
           <t>0.394</t>
         </is>
       </c>
-      <c r="P19" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q19" s="79" t="inlineStr"/>
-      <c r="R19" s="79" t="inlineStr">
+      <c r="P19" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q19" s="62" t="n"/>
+      <c r="R19" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7051,23 +7084,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N20" s="80" t="inlineStr">
+      <c r="N20" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758929', 'pay_time': '1606758929', 'order_time': '1606758929', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019298169273', 'master_order_code': '16202012019298169273', 'order_id': '18132457', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019298169273&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132386', 'order_id': '18132457', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758926', 'pay_time': '1606758926', 'order_time': '1606758926', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019261367706', 'master_order_code': '16202012019261367706', 'order_id': '18132455', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019261367706&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132384', 'order_id': '18132455', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758919', 'pay_time': '1606758919', 'order_time': '1606758919', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['客户IC卡'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '1100', 'order_amount': '1100', 'pay_money': '1100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019198243731', 'master_order_code': '16202012019198243731', 'order_id': '18132451', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019198243731&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '2.16', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132380', 'order_id': '18132451', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '2.16', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '1100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758917', 'pay_time': '1606758917', 'order_time': '1606758917', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['挂账'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019171432511', 'master_order_code': '16202012019171432511', 'order_id': '18132449', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019171432511&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132378', 'order_id': '18132449', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758914', 'pay_time': '1606758914', 'order_time': '1606758914', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['滴滴加油'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019145182067', 'master_order_code': '16202012019145182067', 'order_id': '18132447', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019145182067&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132376', 'order_id': '18132447', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758911', 'pay_time': '1606758911', 'order_time': '1606758911', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['货车帮'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019116467575', 'master_order_code': '16202012019116467575', 'order_id': '18132446', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019116467575&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132375', 'order_id': '18132446', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758908', 'pay_time': '1606758908', 'order_time': '1606758908', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['第三方银联'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019088337121', 'master_order_code': '16202012019088337121', 'order_id': '18132445', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019088337121&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132374', 'order_id': '18132445', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}, {'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758906', 'pay_time': '1606758906', 'order_time': '1606758906', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '--', 'pay_type': ['现金支付'], 'user_id': '0', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': None, 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'discount': 0, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '16202012019060179332', 'master_order_code': '16202012019060179332', 'order_id': '18132443', 'order_type': '16', 'order_type_name': '双屏机支付', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=16202012019060179332&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': True, 'gun_number': '1', 'goods_number': '0.20', 'market_price': '70000', 'energy_number': '98', 'goods_name': '98#车用汽油', 'goods_id': '3', 'goods_type': '10', 'category_id': '1', 'car_no': '', 'items': [{'item_id': '18132372', 'order_id': '18132443', 'goods_type': '10', 'category_id': '1', 'product_id': '0', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.20', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '100', 'is_gift': '0', 'energy_number': '98', 'energy_type': '1', 'gun_id': '428', 'gun_name': '', 'gun_number': '1', 'car_no': ''}]}], 'request_id': '4354c9c20ca532f111f8094e0d5ce63d'}</t>
         </is>
       </c>
-      <c r="O20" s="81" t="inlineStr">
+      <c r="O20" s="64" t="inlineStr">
         <is>
           <t>0.743</t>
         </is>
       </c>
-      <c r="P20" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q20" s="79" t="inlineStr"/>
-      <c r="R20" s="79" t="inlineStr">
+      <c r="P20" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q20" s="62" t="n"/>
+      <c r="R20" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7127,23 +7160,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N21" s="80" t="inlineStr">
+      <c r="N21" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '18132457', 'order_type': '16', 'order_code': '16202012019298169273', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '0', 'mobile': '', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '100', 'order_amount': '100', 'pay_money': '100', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'remark': '', 'has_refund': '1', 'refund_fee': '100', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758929', 'cancel_time': '0', 'refund_time': '1606758933', 'update_time': '1606758933', 'create_time': '1606758929', 'recommand_id': 0, 'items': [{'item_id': '18132386', 'order_id': '18132457', 'goods_type': '10', 'category_id': '1', 'goods_id': '3', 'goods_name': '98#车用汽油', 'goods_sn': '', 'goods_number': '0.200000', 'market_price': '70000', 'goods_price': '70000', 'actual_price': '70000', 'contract_price': '70000', 'subtotal': '100', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0', 'ndrc_sale_price': '0', 'ndrc_wholesale_price': '0', 'energy_type': '1', 'energy_number': '98', 'gun_type': '0', 'gun_id': '428', 'gun_number': '1', 'gun_name': '', 'has_retail': '0', 'car_no': '', 'fleet_id': '0', 'item_inspay_id': '17794007'}], 'payment_info': [{'id': '17369508', 'order_id': '17369508', 'order_code': '16202012019298169273', 'payment_id': '42', 'channel_id': '42', 'card_type': '0', 'card_number': '', 'trade_no': '16202012019298169273', 'out_trade_no': '', 'total_fee': '100', 'pay_fee': '100', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758929', 'notify_time': '1606758929', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '24190', 'refund_type': '11', 'refund_no': '11202012019336767019', 'out_refund_no': '', 'refund_fee': '100', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'hang0813002双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'hang0813002', 'update_time': '1606758933', 'create_time': '1606758933'}]}, 'request_id': '36435b4297d6a57020751b7f405b658f'}</t>
         </is>
       </c>
-      <c r="O21" s="81" t="inlineStr">
+      <c r="O21" s="64" t="inlineStr">
         <is>
           <t>0.656</t>
         </is>
       </c>
-      <c r="P21" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q21" s="79" t="inlineStr"/>
-      <c r="R21" s="79" t="inlineStr">
+      <c r="P21" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q21" s="62" t="n"/>
+      <c r="R21" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7199,23 +7232,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N22" s="80" t="inlineStr">
+      <c r="N22" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'password': '', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'bind_uid': '366128', 'email': '', 'card_id': '0', 'user_auth_id': '1690861', 'auth_type_id': '2', 'app_id': 'wx73a8de5287159207', 'open_id': 'oW7by5LziMh21Uh0cDkM2HmTB8qI', 'master_id': 'ooSm91UB61zF7aMrm5Y-5L26EwVA', 'bind_ali_user': {'user_id': '366128', 'user_name': '', 'full_name': '', 'nickname': '杭', 'img_url': 'https://tfs.alipayobjects.com/images/partner/T1v_hmXkVgXXXXXXXX', 'password': '', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'bind_uid': '366128', 'email': '', 'card_id': '0', 'user_auth_id': '365883', 'auth_type_id': '3', 'app_id': '2019112069300474', 'open_id': '2088902558355112', 'master_id': '2088902558355112', 'vip_info': None, 'point_info': {'id': '806533', 'user_id': '366128', 'merchant_id': '10002', 'remain_points': '144', 'issue_points': '80600', 'consume_points': '80456', 'create_time': '1596075344', 'update_time': '1598339812', 'merchant_type': '1001', 'update_date': '2020-08-25 15:16:52'}, 'car': None, 'card_password': False}, 'vip_info': None, 'point_info': {'id': '571866', 'user_id': '1691198', 'merchant_id': '10002', 'remain_points': '25467', 'issue_points': '30334', 'consume_points': '4867', 'create_time': '1593708940', 'update_time': '1603994311', 'merchant_type': '1001', 'update_date': '2020-10-30 01:58:31'}, 'card_password': True, 'car': None}, 'request_id': '34f3986c79ceab0b0a6903ce48c2a59e'}</t>
         </is>
       </c>
-      <c r="O22" s="81" t="inlineStr">
+      <c r="O22" s="64" t="inlineStr">
         <is>
           <t>0.636</t>
         </is>
       </c>
-      <c r="P22" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q22" s="79" t="inlineStr"/>
-      <c r="R22" s="79" t="inlineStr">
+      <c r="P22" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q22" s="62" t="n"/>
+      <c r="R22" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7271,23 +7304,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N23" s="80" t="inlineStr">
+      <c r="N23" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '1599467192', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '65812', 'card_id': '741', 'code': '2010286988418590', 'user_id': '1691198', 'union_id': '', 'left_amount': 1510.16, 'gift_amount': 300, 'create_time': '1603869884', 'update_time': '1606739745', 'status': '0', 'cancel_account_by': '4241', 'cancel_account_time': '1603869884', 'is_del': '0', 'update_date': '2020-11-30 20:35:48', 'balance_type': '0', 'v_card_code': 'WH123123', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': [{'car_number': '苏FR78988'}]}, 'merchant_ids': ['10002', '20091']}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '605', 'energy_number': '车用尿素'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '6', 'energy_number': '89'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '0.5', 'discount': '0.1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593412927', 'update_time': '1604919343', 'status': '0', 'is_del': '0', 'update_date': '2020-06-29 14:42:07', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '16054', 'card_id': '717', 'code': '2007309069442589', 'user_id': '1691198', 'union_id': '', 'left_amount': 8113.98, 'gift_amount': 61, 'create_time': '1596090694', 'update_time': '1606121712', 'status': '0', 'cancel_account_by': '0', 'cancel_account_time': '0', 'is_del': '0', 'update_date': '2020-09-08 23:23:36', 'balance_type': '0', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10002']}, {'id': '53', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '加油卡卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '10000', 'min': '1'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100000000', 'discount': '0'}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1581564798', 'update_time': '1582083794', 'status': '0', 'is_del': '0', 'update_date': '2020-02-13 11:33:18', 'customer_id': '0', 'type_name': '混合卡', 'user_card': {'id': '66715', 'card_id': '53', 'code': '2010309558171416', 'user_id': '1691198', 'union_id': '', 'left_amount': 2719.67, 'gift_amount': 0, 'create_time': '1603995581', 'update_time': '1604919066', 'status': '0', 'cancel_account_by': '4241', 'cancel_account_time': '1603995581', 'is_del': '0', 'update_date': '2020-10-30 02:21:47', 'balance_type': '0', 'v_card_code': 'WH001522', 'amount': 0, 'quota': 0, 'mount': 0, 'cars': []}, 'merchant_ids': ['10002']}], 'request_id': '2346b27fb624b7e23fa2a29c9e0127b8'}</t>
         </is>
       </c>
-      <c r="O23" s="81" t="inlineStr">
+      <c r="O23" s="64" t="inlineStr">
         <is>
           <t>0.571</t>
         </is>
       </c>
-      <c r="P23" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q23" s="79" t="inlineStr"/>
-      <c r="R23" s="79" t="inlineStr">
+      <c r="P23" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q23" s="62" t="n"/>
+      <c r="R23" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7343,23 +7376,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N24" s="80" t="inlineStr">
+      <c r="N24" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': {'order_type': 50, 'order_code': '50202012019371742452', 'order_code_reversal': '25424717391021020205', 'is_master': 1, 'suborder_num': 0, 'is_suborder': 1, 'related_order': '', 'user_id': 1691198, 'mobile': '15672655599', 'company_id': 0, 'merchant_type': 1001, 'merchant_id': 10002, 'user_level_id': 0, 'user_level_type': 0, 'user_level_name': '', 'user_identity_type': 0, 'user_identity_id': 0, 'invoice_title': '', 'order_status': 1010, 'cancel_status': 0, 'pay_status': 1, 'shipping_status': 0, 'goods_amount': 60000, 'order_amount': 60000, 'pay_money': 0, 'balance': 0, 'credit': 0, 'credit_fee': 0, 'coupon_fee': 0, 'platform_coupon_fee': 0, 'bonus_fee': 0, 'discount': 10000, 'surplus': 50000, 'remark': '加油卡充值', 'has_refund': 0, 'refund_fee': 0, 'pay_time': 1606758937, 'platform': 4100, 'admin_id': 0, 'update_time': 1606758937, 'create_time': 1606758937, 'order_id': '18132459', 'items': [{'goods_type': 50, 'goods_id': 0, 'category_id': 50, 'goods_name': '加油卡充值', 'goods_number': 1, 'market_price': 60000, 'goods_price': '50000'}]}, 'request_id': ''}</t>
         </is>
       </c>
-      <c r="O24" s="81" t="inlineStr">
+      <c r="O24" s="64" t="inlineStr">
         <is>
           <t>0.802</t>
         </is>
       </c>
-      <c r="P24" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q24" s="79" t="inlineStr"/>
-      <c r="R24" s="79" t="inlineStr">
+      <c r="P24" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q24" s="62" t="n"/>
+      <c r="R24" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7415,23 +7448,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N25" s="80" t="inlineStr">
+      <c r="N25" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'order_id': '18132459', 'order_type': '50', 'order_code': '50202012019371742452', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '1691198', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '1160', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '10000', 'remark': '加油卡充值', 'has_refund': '0', 'refund_fee': '0', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758938', 'cancel_time': '0', 'refund_time': '0', 'update_time': '1606758938', 'create_time': '1606758937', 'recommand_id': 0, 'items': [{'item_id': '18132388', 'order_id': '18132459', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '17369510', 'order_id': '17369510', 'order_code': '50202012019371742452', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012019371742452', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758938', 'notify_time': '1606758938', 'platform': '4100', 'other': ''}]}], 'request_id': '06872bf3e2dce16ed5604f568874a753'}</t>
         </is>
       </c>
-      <c r="O25" s="82" t="inlineStr">
+      <c r="O25" s="65" t="inlineStr">
         <is>
           <t>1.014</t>
         </is>
       </c>
-      <c r="P25" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q25" s="79" t="inlineStr"/>
-      <c r="R25" s="79" t="inlineStr">
+      <c r="P25" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q25" s="62" t="n"/>
+      <c r="R25" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7487,23 +7520,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N26" s="80" t="inlineStr">
+      <c r="N26" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': [{'merchant_id': '10002', 'merchant_type': '1001', 'admin_id': '0', 'create_time': '1606758938', 'pay_time': '1606758938', 'order_time': '1606758937', 'pay_status': '4', 'pay_status_name': '已支付', 'mobile': '15672655599', 'pay_type': ['现金支付'], 'user_id': '1691198', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '--', 'user_info': {'user_id': '1691198', 'user_name': '', 'full_name': '谢', 'nickname': '、杭', 'img_url': 'https://thirdwx.qlogo.cn/mmopen/vi_32/77xQM5WFqKjXaNsCUk3hnWyZsRTRwTE5CLYrxsNz4k0snWILEn8WfjW0lWCpVqMhrt0ib6rzliaibiaCF2hTpLG3uw/132', 'gender': '1', 'mobile': '15672655599', 'status': '1', 'create_time': '1593340812', 'update_time': '1605630889', 'bind_uid': '366128', 'bind_time': '1605630889'}, 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'discount': 10000, 'coupon_fee': '0', 'surplus': '0', 'order_status': '1160', 'order_status_name': '已支付', 'order_code': '50202012019371742452', 'master_order_code': '50202012019371742452', 'order_id': '18132459', 'order_type': '50', 'order_type_name': '加油卡充值', 'is_vip_pay': 0, 'is_refunded': 0, 'note': '', 'remark': '加油卡充值', 'retail_info': None, 'is_master': '1', 'is_split': '0', 'is_suborder': '1', 'recharge': [], 'invoice': 'https://api.shylwlkj.com/q/?r=1&amp;a=invoice&amp;order_code=50202012019371742452&amp;merchant_id=10002', 'is_print_invoice': 1, 'os_order_match': False, 'gun_number': '', 'goods_number': '1.00', 'market_price': '60000', 'energy_number': '', 'goods_name': '加油卡充值', 'goods_id': '0', 'goods_type': '50', 'category_id': '50', 'car_no': '', 'items': [{'item_id': '18132388', 'order_id': '18132459', 'goods_type': '50', 'category_id': '50', 'product_id': '0', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'discount': '0', 'subtotal': '0', 'is_gift': '0', 'energy_number': '', 'energy_type': '', 'gun_id': '', 'gun_name': '', 'gun_number': '', 'car_no': ''}]}], 'request_id': '8d71320ce2d216e108dc510a0f49217a'}</t>
         </is>
       </c>
-      <c r="O26" s="81" t="inlineStr">
+      <c r="O26" s="64" t="inlineStr">
         <is>
           <t>0.409</t>
         </is>
       </c>
-      <c r="P26" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q26" s="79" t="inlineStr"/>
-      <c r="R26" s="79" t="inlineStr">
+      <c r="P26" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q26" s="62" t="n"/>
+      <c r="R26" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7563,23 +7596,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N27" s="80" t="inlineStr">
+      <c r="N27" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '18132459', 'order_type': '50', 'order_code': '50202012019371742452', 'is_split': 0, 'is_master': 1, 'is_suborder': 1, 'suborder_num': '0', 'related_order': '', 'payment_id': '0', 'channel_id': '0', 'user_id': '1691198', 'mobile': '15672655599', 'company_id': '0', 'merchant_type': '1001', 'merchant_id': '10002', 'user_level_id': '0', 'user_level_type': '0', 'user_level_name': '', 'user_identity_type': '0', 'user_identity_id': '0', 'invoice_title': '', 'order_status': '3020', 'cancel_status': '0', 'revoke_status': '0', 'pay_status': '4', 'goods_amount': '60000', 'order_amount': '60000', 'pay_money': '50000', 'surplus': '0', 'balance': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '10000', 'remark': '加油卡充值', 'has_refund': '1', 'refund_fee': '50000', 'platform': '4100', 'admin_id': '0', 'pay_time': '1606758938', 'cancel_time': '0', 'refund_time': '1606758942', 'update_time': '1606758942', 'create_time': '1606758937', 'recommand_id': 0, 'items': [{'item_id': '18132388', 'order_id': '18132459', 'goods_type': '50', 'category_id': '50', 'goods_id': '0', 'goods_name': '加油卡充值', 'goods_sn': '', 'goods_number': '1.000000', 'market_price': '60000', 'goods_price': '50000', 'actual_price': '0', 'contract_price': '0', 'subtotal': '0', 'credit': '0', 'credit_fee': '0', 'coupon_fee': '0', 'bonus_fee': '0', 'discount': '0', 'is_gift': '0'}], 'payment_info': [{'id': '17369510', 'order_id': '17369510', 'order_code': '50202012019371742452', 'payment_id': '10', 'channel_id': '10', 'card_type': '0', 'card_number': '', 'trade_no': '50202012019371742452', 'out_trade_no': '', 'total_fee': '50000', 'pay_fee': '50000', 'fee_rate': '0.00', 'payment_type': '0', 'mch_id': '', 'public_type': '0', 'discount': '0', 'refund_fee': '0', 'pay_time': '1606758938', 'notify_time': '1606758938', 'platform': '4100', 'other': ''}], 'refund_info': [{'refund_id': '24191', 'refund_type': '11', 'refund_no': '11202012019420224064', 'out_refund_no': '', 'refund_fee': '50000', 'reason': '双屏机接口冒烟测试-退款', 'remark': 'hang0813002双屏机申请退款', 'refund_status': '16', 'platform': '0', 'operator_name': 'hang0813002', 'update_time': '1606758942', 'create_time': '1606758942'}]}, 'request_id': '2568d1933c457d27b3481664f0089d3c'}</t>
         </is>
       </c>
-      <c r="O27" s="82" t="inlineStr">
+      <c r="O27" s="65" t="inlineStr">
         <is>
           <t>1.404</t>
         </is>
       </c>
-      <c r="P27" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q27" s="79" t="inlineStr"/>
-      <c r="R27" s="79" t="inlineStr">
+      <c r="P27" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q27" s="62" t="n"/>
+      <c r="R27" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7639,23 +7672,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N28" s="80" t="inlineStr">
+      <c r="N28" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '243448'}, 'request_id': 'bf139b54fb41103378dd4a8ee6187a78'}</t>
         </is>
       </c>
-      <c r="O28" s="81" t="inlineStr">
+      <c r="O28" s="64" t="inlineStr">
         <is>
           <t>0.479</t>
         </is>
       </c>
-      <c r="P28" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q28" s="79" t="inlineStr"/>
-      <c r="R28" s="79" t="inlineStr">
+      <c r="P28" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q28" s="62" t="n"/>
+      <c r="R28" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7715,23 +7748,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N29" s="80" t="inlineStr">
+      <c r="N29" s="63" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'Success', 'data': {'order_id': '243444'}, 'request_id': 'fbfd5df3c9a61038415b3e551c9ef19a'}</t>
         </is>
       </c>
-      <c r="O29" s="81" t="inlineStr">
+      <c r="O29" s="64" t="inlineStr">
         <is>
           <t>0.473</t>
         </is>
       </c>
-      <c r="P29" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q29" s="79" t="inlineStr"/>
-      <c r="R29" s="79" t="inlineStr">
+      <c r="P29" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q29" s="62" t="n"/>
+      <c r="R29" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7787,23 +7820,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N30" s="80" t="inlineStr">
+      <c r="N30" s="63" t="inlineStr">
         <is>
           <t>{'info': 'Success', 'status': 200, 'data': None, 'request_id': '855ea0b00bb1b825a44d53a40dfbb5c4'}</t>
         </is>
       </c>
-      <c r="O30" s="81" t="inlineStr">
+      <c r="O30" s="64" t="inlineStr">
         <is>
           <t>0.327</t>
         </is>
       </c>
-      <c r="P30" s="79" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q30" s="79" t="inlineStr"/>
-      <c r="R30" s="79" t="inlineStr">
+      <c r="P30" s="62" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q30" s="62" t="n"/>
+      <c r="R30" s="62" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -7871,8 +7904,8 @@
     <col width="15.33203125" bestFit="1" customWidth="1" style="9" min="16" max="16"/>
     <col width="17" customWidth="1" style="9" min="17" max="17"/>
     <col width="11.83203125" customWidth="1" style="9" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="9" min="19" max="68"/>
-    <col width="10.83203125" customWidth="1" style="9" min="69" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="9" min="19" max="78"/>
+    <col width="10.83203125" customWidth="1" style="9" min="79" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="28">
@@ -7881,13 +7914,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="76" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>双屏机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="27" t="n"/>
@@ -7909,9 +7942,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="27" t="n"/>
@@ -8609,7 +8642,7 @@
   </sheetPr>
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -8640,13 +8673,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="76" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="27" t="n"/>
@@ -8668,9 +8701,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="27" t="n"/>
@@ -8831,23 +8864,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="69" t="inlineStr">
+      <c r="N4" s="60" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'st_name': '智慧第一加油站', 'st_logo': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/12/17/334ec0abb599668f6ba1bb67c1de.png', 'address': '北京西城区', 'contact_tel': '18617121378', 'group_id': 1, 'role': 0, 'gun_oil_arr': [{'gun_id': 2945, 'gun_no': 1, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000'}, {'gun_id': 2946, 'gun_no': 2, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800'}, {'gun_id': 2947, 'gun_no': 3, 'oil_number': '-50', 'oil_name': '-50#车用柴油', 'oil_type': '2', 'oil_id': '1406', 'price': '29000'}, {'gun_id': 3066, 'gun_no': 4, 'oil_number': '-20', 'oil_name': '-20#车用柴油', 'oil_type': '2', 'oil_id': '1404', 'price': '1900'}, {'gun_id': 299, 'gun_no': 5, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '2003', 'price': '33200'}, {'gun_id': 2965, 'gun_no': 6, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '2003', 'price': '33200'}, {'gun_id': 301, 'gun_no': 7, 'oil_number': '97', 'oil_name': '97#车用汽油', 'oil_type': '1', 'oil_id': '2002', 'price': '39000'}, {'gun_id': 302, 'gun_no': 8, 'oil_number': '97', 'oil_name': '97#车用汽油', 'oil_type': '1', 'oil_id': '2002', 'price': '39000'}, {'gun_id': 2985, 'gun_no': 9, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '2003', 'price': '33200'}, {'gun_id': 2949, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000'}, {'gun_id': 2950, 'gun_no': 11, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800'}, {'gun_id': 2987, 'gun_no': 12, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1602', 'price': '41900'}, {'gun_id': 2951, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000'}, {'gun_id': 2952, 'gun_no': 14, 'oil_number': 'CNG', 'oil_name': 'CNG', 'oil_type': '3', 'oil_id': '2026', 'price': '34500'}, {'gun_id': 2986, 'gun_no': 15, 'oil_number': '10', 'oil_name': '10#车用柴油', 'oil_type': '1', 'oil_id': '1601', 'price': '20000'}, {'gun_id': 2955, 'gun_no': 16, 'oil_number': 'LNG', 'oil_name': 'LNG', 'oil_type': '6', 'oil_id': '2025', 'price': '53500'}, {'gun_id': 2957, 'gun_no': 17, 'oil_number': None, 'oil_name': None, 'oil_type': None, 'oil_id': '400', 'price': None}, {'gun_id': 3029, 'gun_no': 18, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800'}, {'gun_id': 3071, 'gun_no': 19, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000'}, {'gun_id': 3072, 'gun_no': 20, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2004', 'price': '23900'}, {'gun_id': 3074, 'gun_no': 21, 'oil_number': '-50', 'oil_name': '-50#车用柴油', 'oil_type': '2', 'oil_id': '1406', 'price': '29000'}, {'gun_id': 3075, 'gun_no': 22, 'oil_number': '-10', 'oil_name': '-10#车用柴油', 'oil_type': '2', 'oil_id': '1503', 'price': '12900'}, {'gun_id': 3076, 'gun_no': 23, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800'}, {'gun_id': 3077, 'gun_no': 24, 'oil_number': '95', 'oil_name': '95#车用汽油（国标）', 'oil_type': '1', 'oil_id': '2007', 'price': '29900'}, {'gun_id': 3078, 'gun_no': 100, 'oil_number': '95', 'oil_name': '95#车用汽油（国标）', 'oil_type': '1', 'oil_id': '2007', 'price': '29900'}, {'gun_id': 3073, 'gun_no': 123, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800'}], 'guns': ['1', '2', '3', '4', '5', '6', '7', '8', '9', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '20', '21', '22', '23', '24', '100', '123'], 'oils': [], 'is_gun': True, 'pub_code_url': 'http://mmbiz.qpic.cn/mmbiz_jpg/bqZlAHxBlo8gH5xzicnJmibhQnACiaMvHvY7wpWjlo2EAWKfpTVKhkRE7svQtiaoZB8Pial2RXbGqZGRxu10cY41IBA/0', 'small_app_code': 'http://mmbiz.qpic.cn/mmbiz_jpg/LWyOkPJVI8ibZwVSsb0n2ga6kFpwmBjISJiaw3RDAJd19iakNREVv2VQvfSQHMjMQvic6jLF9nDcOn0FHEI4Lg1AeA/0', 'tips': '', 'visitor_type': '0', 'is_admin': True, 'cash_switch': '1', 'role_name': '单站-管理员', 'token': '6a495713-6a8e-d3e5-0a0a-f4419bfc4dc3', 'st_id': '10001', 'u_id': '1344', 'name': 'hang0813', 'real_name': '王杭-智慧第一', 'mobile': '15672655599', 'merchant_type': '1001', 'per_info': [{'menu_name': 'POS收银', 'menu_path': 'pos_collect'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_plate_pay'}, {'menu_name': '切换油站', 'menu_path': 'search_st'}, {'menu_name': '查看班结记录', 'menu_path': 'summary_record'}, {'menu_name': '查看班结统计', 'menu_path': 'summary_details'}, {'menu_name': '班结打印', 'menu_path': 'summary_print'}, {'menu_name': '一键班结', 'menu_path': 'summary'}, {'menu_name': '订单新增', 'menu_path': 'add_order'}, {'menu_name': '待开发票', 'menu_path': 'open_bill'}, {'menu_name': '查看订单详情', 'menu_path': 'oil_details'}, {'menu_name': '订单申请退款', 'menu_path': 'oil_refund'}, {'menu_name': '订单补打', 'menu_path': 'oil_print'}, {'menu_name': '订单搜索', 'menu_path': 'search_order'}, {'menu_name': '查看订单详情', 'menu_path': 'inspay_details'}, {'menu_name': '订单申请退款', 'menu_path': 'inspay_refund'}, {'menu_name': '订单补打', 'menu_path': 'inspay_print'}, {'menu_name': '查看订单详情', 'menu_path': 'quick_details'}, {'menu_name': '订单申请退款', 'menu_path': 'quick_refund'}, {'menu_name': '订单补打', 'menu_path': 'quick_print'}, {'menu_name': '查看订单详情', 'menu_path': 'store_details'}, {'menu_name': '订单申请退款', 'menu_path': 'store_refund'}, {'menu_name': '订单补打', 'menu_path': 'store_print'}, {'menu_name': '查看订单详情', 'menu_path': 'czb_details'}, {'menu_name': '订单补打', 'menu_path': 'czb_print'}, {'menu_name': '查看订单详情', 'menu_path': 'offline_details'}, {'menu_name': '订单补打', 'menu_path': 'offline_print'}, {'menu_name': '加油卡充值订单详情', 'menu_path': 'card_recharge_details'}, {'menu_name': '加油卡充值订单退款', 'menu_path': 'card_recharge_refund'}, {'menu_name': '加油卡充值订单补打', 'menu_path': 'card_recharge_print'}, {'menu_name': '加油卡开卡', 'menu_path': 'open_card'}, {'menu_name': '加油卡充值', 'menu_path': 'recharge'}, {'menu_name': '修改加油卡密码', 'menu_path': 'card_change_pwd'}, {'menu_name': '加油卡消费订单补打', 'menu_path': 'card_trade_print'}, {'menu_name': '加油卡消费订单退款', 'menu_path': 'card_trade_refund'}, {'menu_name': '车牌支付详情', 'menu_path': 'car_plate_details'}, {'menu_name': '车牌支付补打', 'menu_path': 'car_plate_print'}, {'menu_name': '车牌支付申请退款', 'menu_path': 'car_plate_refund'}, {'menu_name': 'ETC订单详情', 'menu_path': 'etc_details'}, {'menu_name': 'ETC订单申请退款', 'menu_path': 'etc_refund'}, {'menu_name': 'ETC订单补打', 'menu_path': 'etc_print'}, {'menu_name': 'ETC加油', 'menu_path': 'etc_pay'}, {'menu_name': '订单搜索详情', 'menu_path': 'search_details'}, {'menu_name': '查看小票相关信息', 'menu_path': 'bill_check'}, {'menu_name': '编辑小票相关信息', 'menu_path': 'bill_edit'}, {'menu_name': '语音播报', 'menu_path': 'voice_set'}, {'menu_name': '查看语音播报', 'menu_path': 'voice_check'}, {'menu_name': '编辑语音播报', 'menu_path': 'voice_edit'}, {'menu_name': '新增语音播报', 'menu_path': 'add_voice'}, {'menu_name': '删除语音播报', 'menu_path': 'del_voice'}, {'menu_name': '密码设置', 'menu_path': 'pwd_set'}, {'menu_name': '班结设置', 'menu_path': 'summary_set'}, {'menu_name': '车牌付', 'menu_path': 'car_pay'}], 'station_role': 1}}</t>
         </is>
       </c>
-      <c r="O4" s="70" t="inlineStr">
+      <c r="O4" s="61" t="inlineStr">
         <is>
           <t>0.297</t>
         </is>
       </c>
-      <c r="P4" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="68" t="n"/>
-      <c r="R4" s="68" t="inlineStr">
+      <c r="P4" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="59" t="n"/>
+      <c r="R4" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -8902,23 +8935,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="69" t="inlineStr">
+      <c r="N5" s="60" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1344', 'admin_name': 'hang0813', 'real_name': '王杭-智慧第一', 'admin_type': '2', 'mobile': '15672655599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1606758356', 'status': '1', 'create_time': '1605592984', 'update_time': '1606758356', 'token': 'efd21846708db1c492678d9bd59b932104505679', 'theme_config': {'platform_name': '能链云', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 416, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'menu_name': '创建优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add-', 'leve': 5}, {'menu_id': '401', 'menu_type': '2', 'parent_id': '297', 'menu_name': '营销工具', 'menu_path': '', 'vue_path': 'activity_add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add', 'leve': 4}, {'menu_id': '301', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建价立减', 'menu_path': '', 'vue_path': 'cut', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-cut', 'leve': 5}, {'menu_id': '302', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额送', 'menu_path': '', 'vue_path': 'reward', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-reward', 'leve': 5}, {'menu_id': '303', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建幸运抽奖', 'menu_path': '', 'vue_path': 'lucky', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-lucky', 'leve': 5}, {'menu_id': '304', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建免单', 'menu_path': '', 'vue_path': 'free', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-free', 'leve': 5}, {'menu_id': '305', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建好友邀请', 'menu_path': '', 'vue_path': 'invite', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-invite', 'leve': 5}, {'menu_id': '562', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建红包', 'menu_path': '', 'vue_path': 'redpacketadd', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-redpacketadd', 'leve': 5}, {'menu_id': '672', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建手动发券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '712', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额减', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '758', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建充值送券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '560', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list', 'leve': 3}, {'menu_id': '402', 'menu_type': '2', 'parent_id': '560', 'menu_name': '活动列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list', 'leve': 4}, {'menu_id': '578', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list-', 'leve': 5}, {'menu_id': '887', 'menu_type': '2', 'parent_id': '402', 'menu_nam</t>
         </is>
       </c>
-      <c r="O5" s="70" t="inlineStr">
+      <c r="O5" s="61" t="inlineStr">
         <is>
           <t>0.399</t>
         </is>
       </c>
-      <c r="P5" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="68" t="n"/>
-      <c r="R5" s="68" t="inlineStr">
+      <c r="P5" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="59" t="n"/>
+      <c r="R5" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -8974,23 +9007,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="69" t="inlineStr">
+      <c r="N6" s="60" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '2945', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2946', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '1', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2947', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '1406', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-50#车用柴油', 'energy_number': '-50', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3066', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '1404', 'group_num': '', 'status': '1', 'price': '1900', 'admin_id': '1', 'start_time': '1600963200', 'energy_name': '-20#车用柴油', 'energy_number': '-20', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '299', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '1', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2965', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '301', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '2002', 'group_num': '1', 'status': '1', 'price': '39000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '97#车用汽油', 'energy_number': '97', 'energy_type': '1', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '302', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '2002', 'group_num': '1', 'status': '1', 'price': '39000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '97#车用汽油', 'energy_number': '97', 'energy_type': '1', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2985', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2949', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2950', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '1', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2987', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '1602', 'group_num': '', 'status': '1', 'price': '41900', 'admin_id': '1', 'start_time': '1603712349', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2951', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2952', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '2026', 'group_num': '1', 'status': '1', 'price': '34500', 'admin_id': '1', 'start_time': '1603717052', 'energy_name': 'CNG', 'energy_number': 'CNG', 'energy_type': '3', 'unit': 'm³', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '2986', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '1601', 'group_num': '', 'status': '1', 'price': '20000', 'admin_id': '1', 'start_time': '1603715289', 'energy_name': '10#车用柴油', 'energy_number': '10', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2955', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '2025', 'group_num': '', 'status': '1', 'price': '53500', 'admin_id': '1', 'start_time': '1603717052', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '6', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '2957', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '400', 'group_num': '', 'status': '1', 'retail_status': 1}, {'id': '3029', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3071', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '19号枪', 'gun_number': '19', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}, {'id': '3072', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '2004', 'group_num': '', 'status': '1', 'price': '23900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '3074', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '1406', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-50#车用柴油', 'energy_number': '-50', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3075', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '1503', 'group_num': '', 'status': '1', 'price': '12900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3076', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3077', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '2007', 'group_num': '', 'status': '1', 'price': '29900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油（国标）', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '3078', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '100号枪', 'gun_number': '100', 'gun_type': '1001', 'energy_id': '2007', 'group_num': '', 'status': '1', 'price': '29900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油（国标）', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}, {'id': '3073', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}], 'request_id': 'f6de34b57a9b745bb2bccd9c49a3d1b3'}</t>
         </is>
       </c>
-      <c r="O6" s="70" t="inlineStr">
+      <c r="O6" s="61" t="inlineStr">
         <is>
           <t>0.449</t>
         </is>
       </c>
-      <c r="P6" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="68" t="n"/>
-      <c r="R6" s="68" t="inlineStr">
+      <c r="P6" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="59" t="n"/>
+      <c r="R6" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9046,23 +9079,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="69" t="inlineStr">
+      <c r="N7" s="60" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'items': [{'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '95', 'oil_gun': '100', 'oil_amount': '0.330000', 'car_no': '', 'pay_time': '2020-11-27 10:24:11', 'order_price': 1, 'order_type': '10', 'order_code': '10202011278489608542', 'credit': 0, 'mobile': '', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '98', 'oil_gun': '19', 'oil_amount': '1.050000', 'car_no': '', 'pay_time': '2020-11-27 10:20:48', 'order_price': 2, 'order_type': '110', 'order_code': '110202011276480414271', 'credit': 0, 'mobile': '', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '98', 'oil_gun': '19', 'oil_amount': '0.530000', 'car_no': '', 'pay_time': '2020-11-27 10:18:09', 'order_price': 1, 'order_type': '110', 'order_code': '110202011274889216254', 'credit': 0, 'mobile': '', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}, {'is_refunded': 0, 'pay_type': '', 'goods_type': '10', 'oil_type': '98', 'oil_gun': '19', 'oil_amount': '0.530000', 'car_no': '', 'pay_time': '2020-11-27 10:16:37', 'order_price': 1, 'order_type': '110', 'order_code': '110202011273970092085', 'credit': 0, 'mobile': '', 'admin_id': '0', 'op_user': '', 'status_str': '已支付'}]}}</t>
         </is>
       </c>
-      <c r="O7" s="70" t="inlineStr">
+      <c r="O7" s="61" t="inlineStr">
         <is>
           <t>0.133</t>
         </is>
       </c>
-      <c r="P7" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="68" t="n"/>
-      <c r="R7" s="68" t="inlineStr">
+      <c r="P7" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="59" t="n"/>
+      <c r="R7" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9118,23 +9151,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="69" t="inlineStr">
+      <c r="N8" s="60" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'gun_oil_arr': [{'gun_id': 2945, 'gun_no': 1, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000', 'market_price': '19000', 'real_price': 19000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2946, 'gun_no': 2, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800', 'market_price': '45800', 'real_price': 45800, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2947, 'gun_no': 3, 'oil_number': '-50', 'oil_name': '-50#车用柴油', 'oil_type': '2', 'oil_id': '1406', 'price': '29000', 'market_price': '29000', 'real_price': 29000, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3066, 'gun_no': 4, 'oil_number': '-20', 'oil_name': '-20#车用柴油', 'oil_type': '2', 'oil_id': '1404', 'price': '1900', 'market_price': '1900', 'real_price': 1900, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 299, 'gun_no': 5, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '2003', 'price': '33200', 'market_price': '33200', 'real_price': 33200, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2965, 'gun_no': 6, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '2003', 'price': '33200', 'market_price': '33200', 'real_price': 33200, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 301, 'gun_no': 7, 'oil_number': '97', 'oil_name': '97#车用汽油', 'oil_type': '1', 'oil_id': '2002', 'price': '39000', 'market_price': '39000', 'real_price': 39000, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 302, 'gun_no': 8, 'oil_number': '97', 'oil_name': '97#车用汽油', 'oil_type': '1', 'oil_id': '2002', 'price': '39000', 'market_price': '39000', 'real_price': 39000, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2985, 'gun_no': 9, 'oil_number': '92', 'oil_name': '92#车用汽油', 'oil_type': '1', 'oil_id': '2003', 'price': '33200', 'market_price': '33200', 'real_price': 33200, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2949, 'gun_no': 10, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000', 'market_price': '19000', 'real_price': 19000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2950, 'gun_no': 11, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800', 'market_price': '45800', 'real_price': 45800, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2987, 'gun_no': 12, 'oil_number': '0', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1602', 'price': '41900', 'market_price': '41900', 'real_price': 41900, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2951, 'gun_no': 13, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000', 'market_price': '19000', 'real_price': 19000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2952, 'gun_no': 14, 'oil_number': 'CNG', 'oil_name': 'CNG', 'oil_type': '3', 'oil_id': '2026', 'price': '34500', 'market_price': '34500', 'real_price': 34500, 'standard_name': '天然气', 'icon_url': ''}, {'gun_id': 2986, 'gun_no': 15, 'oil_number': '10', 'oil_name': '10#车用柴油', 'oil_type': '1', 'oil_id': '1601', 'price': '20000', 'market_price': '20000', 'real_price': 20000, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 2955, 'gun_no': 16, 'oil_number': 'LNG', 'oil_name': 'LNG', 'oil_type': '6', 'oil_id': '2025', 'price': '53500', 'market_price': '53500', 'real_price': 53500, 'standard_name': '天然气', 'icon_url': ''}, {'gun_id': 3029, 'gun_no': 18, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800', 'market_price': '45800', 'real_price': 45800, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3071, 'gun_no': 19, 'oil_number': '98', 'oil_name': '98#车用汽油', 'oil_type': '1', 'oil_id': '2005', 'price': '19000', 'market_price': '19000', 'real_price': 19000, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3072, 'gun_no': 20, 'oil_number': '95', 'oil_name': '95#车用汽油', 'oil_type': '1', 'oil_id': '2004', 'price': '23900', 'market_price': '23900', 'real_price': 23900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3074, 'gun_no': 21, 'oil_number': '-50', 'oil_name': '-50#车用柴油', 'oil_type': '2', 'oil_id': '1406', 'price': '29000', 'market_price': '29000', 'real_price': 29000, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3075, 'gun_no': 22, 'oil_number': '-10', 'oil_name': '-10#车用柴油', 'oil_type': '2', 'oil_id': '1503', 'price': '12900', 'market_price': '12900', 'real_price': 12900, 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3076, 'gun_no': 23, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800', 'market_price': '45800', 'real_price': 45800, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3077, 'gun_no': 24, 'oil_number': '95', 'oil_name': '95#车用汽油（国标）', 'oil_type': '1', 'oil_id': '2007', 'price': '29900', 'market_price': '29900', 'real_price': 29900, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3078, 'gun_no': 100, 'oil_number': '95', 'oil_name': '95#车用汽油（国标）', 'oil_type': '1', 'oil_id': '2007', 'price': '29900', 'market_price': '29900', 'real_price': 29900, 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}, {'gun_id': 3073, 'gun_no': 123, 'oil_number': '1', 'oil_name': '0#车用柴油', 'oil_type': '2', 'oil_id': '1402', 'price': '45800', 'market_price': '45800', 'real_price': 45800, 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235'}]}}</t>
         </is>
       </c>
-      <c r="O8" s="70" t="inlineStr">
+      <c r="O8" s="61" t="inlineStr">
         <is>
           <t>0.079</t>
         </is>
       </c>
-      <c r="P8" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="68" t="n"/>
-      <c r="R8" s="68" t="inlineStr">
+      <c r="P8" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="59" t="n"/>
+      <c r="R8" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9190,23 +9223,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="67" t="inlineStr">
+      <c r="N9" s="58" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012013604368838', 'out_trade_no': '110202012013604368838', 'user_info': '', 'oil_code': '110202012013604368838', 'master_code': '110202012013604368838', 'pay_time': '2020-12-01 01:46:00', 'create_time': '2020-12-01 01:46:00', 'cancel_status': 0, 'st_id': 10001, 'order_price': 10, 'pay_amt': 0.01, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '98', 'gun_no': '1', 'oil_gun': '1', 'oil_name': '98#车用汽油', 'orig_sell_price': 1.9, 'yy_sell_price': 19000, 'oil_amount': 5.26}}</t>
         </is>
       </c>
-      <c r="O9" s="70" t="inlineStr">
+      <c r="O9" s="61" t="inlineStr">
         <is>
           <t>0.641</t>
         </is>
       </c>
-      <c r="P9" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="68" t="n"/>
-      <c r="R9" s="68" t="inlineStr">
+      <c r="P9" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="59" t="n"/>
+      <c r="R9" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9262,23 +9295,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="69" t="inlineStr">
+      <c r="N10" s="60" t="inlineStr">
         <is>
           <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'pay_type': '现金支付', 'pay_status': 4, 'order_code': '110202012013615848823', 'out_trade_no': '110202012013615848823', 'user_info': '', 'oil_code': '110202012013615848823', 'master_code': '110202012013615848823', 'pay_time': '2020-12-01 01:46:01', 'create_time': '2020-12-01 01:46:01', 'cancel_status': 0, 'st_id': 10001, 'order_price': 10, 'pay_amt': 0.01, 'coupon_fee': 0, 'order_type': 110, 'discount': 0, 'extra_favor': 0, 'market_info': [], 'goods_type': 10, 'oil_type': '98', 'gun_no': '19', 'oil_gun': '19', 'oil_name': '98#车用汽油', 'orig_sell_price': 1.9, 'yy_sell_price': 19000, 'oil_amount': 5.26}}</t>
         </is>
       </c>
-      <c r="O10" s="70" t="inlineStr">
+      <c r="O10" s="61" t="inlineStr">
         <is>
           <t>0.724</t>
         </is>
       </c>
-      <c r="P10" s="68" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="68" t="n"/>
-      <c r="R10" s="68" t="inlineStr">
+      <c r="P10" s="59" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="59" t="n"/>
+      <c r="R10" s="59" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9302,10 +9335,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -9318,7 +9351,7 @@
     <col width="55.6640625" bestFit="1" customWidth="1" style="28" min="7" max="7"/>
     <col width="97.1640625" bestFit="1" customWidth="1" style="28" min="8" max="8"/>
     <col width="52" customWidth="1" style="28" min="9" max="9"/>
-    <col width="116.6640625" bestFit="1" customWidth="1" style="28" min="10" max="10"/>
+    <col width="39.83203125" customWidth="1" style="28" min="10" max="10"/>
     <col width="9.6640625" bestFit="1" customWidth="1" style="28" min="11" max="11"/>
     <col width="41.1640625" customWidth="1" style="28" min="12" max="12"/>
     <col width="12.33203125" bestFit="1" customWidth="1" style="28" min="13" max="13"/>
@@ -9327,8 +9360,8 @@
     <col width="15" bestFit="1" customWidth="1" style="28" min="16" max="16"/>
     <col width="10.6640625" bestFit="1" customWidth="1" style="28" min="17" max="17"/>
     <col width="6.83203125" bestFit="1" customWidth="1" style="28" min="18" max="18"/>
-    <col width="10.83203125" customWidth="1" style="9" min="19" max="22"/>
-    <col width="10.83203125" customWidth="1" style="9" min="23" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="9" min="19" max="32"/>
+    <col width="10.83203125" customWidth="1" style="9" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" s="28">
@@ -9337,13 +9370,13 @@
           <t>用例名称</t>
         </is>
       </c>
-      <c r="B1" s="76" t="inlineStr">
+      <c r="B1" s="82" t="inlineStr">
         <is>
           <t>POS机接口冒烟测试</t>
         </is>
       </c>
-      <c r="C1" s="77" t="n"/>
-      <c r="D1" s="77" t="n"/>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="27" t="n"/>
@@ -9365,9 +9398,9 @@
           <t>用例说明</t>
         </is>
       </c>
-      <c r="B2" s="74" t="n"/>
-      <c r="C2" s="75" t="n"/>
-      <c r="D2" s="75" t="n"/>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
       <c r="G2" s="27" t="n"/>
@@ -9517,7 +9550,7 @@
       </c>
       <c r="H4" s="53" t="inlineStr">
         <is>
-          <t>{"admin_name":"hang0813","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
+          <t>{"admin_name":"hang081302","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
         </is>
       </c>
       <c r="I4" s="9" t="n"/>
@@ -9529,23 +9562,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1344', 'admin_name': 'hang0813', 'real_name': '王杭-智慧第一', 'admin_type': '2', 'mobile': '15672655599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1606739840', 'status': '1', 'create_time': '1605592984', 'update_time': '1606739840', 'token': 'fdeb1b4bda31eeb1b822cc4d96933a4c8a39da94', 'theme_config': {'platform_name': '能链云', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 416, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'menu_name': '创建优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add-', 'leve': 5}, {'menu_id': '401', 'menu_type': '2', 'parent_id': '297', 'menu_name': '营销工具', 'menu_path': '', 'vue_path': 'activity_add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add', 'leve': 4}, {'menu_id': '301', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建价立减', 'menu_path': '', 'vue_path': 'cut', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-cut', 'leve': 5}, {'menu_id': '302', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额送', 'menu_path': '', 'vue_path': 'reward', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-reward', 'leve': 5}, {'menu_id': '303', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建幸运抽奖', 'menu_path': '', 'vue_path': 'lucky', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-lucky', 'leve': 5}, {'menu_id': '304', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建免单', 'menu_path': '', 'vue_path': 'free', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-free', 'leve': 5}, {'menu_id': '305', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建好友邀请', 'menu_path': '', 'vue_path': 'invite', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-invite', 'leve': 5}, {'menu_id': '562', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建红包', 'menu_path': '', 'vue_path': 'redpacketadd', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-redpacketadd', 'leve': 5}, {'menu_id': '672', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建手动发券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '712', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额减', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '758', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建充值送券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '560', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list', 'leve': 3}, {'menu_id': '402', 'menu_type': '2', 'parent_id': '560', 'menu_name': '活动列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list', 'leve': 4}, {'menu_id': '578', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list-', 'leve': 5}, {'menu_id': '887', 'menu_type': '2', 'parent_id': '402', 'menu_nam</t>
-        </is>
-      </c>
-      <c r="O4" s="65" t="inlineStr">
-        <is>
-          <t>0.367</t>
-        </is>
-      </c>
-      <c r="P4" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="63" t="n"/>
-      <c r="R4" s="63" t="inlineStr">
+      <c r="N4" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5308', 'admin_name': 'hang081302', 'real_name': '\xa0王杭-南山第二', 'admin_type': '2', 'mobile': '15672655599', 'last_login_time': '1606877594', 'status': '1', 'create_time': '1605607335', 'update_time': '1606877594', 'token': '6365cb987c458eeb362ac09600023103cef32eb6', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
+        </is>
+      </c>
+      <c r="O4" s="76" t="inlineStr">
+        <is>
+          <t>0.705</t>
+        </is>
+      </c>
+      <c r="P4" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="74" t="n"/>
+      <c r="R4" s="74" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9564,17 +9597,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>油枪列表</t>
+          <t>油品</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>获取油站零管油枪</t>
+          <t>获取油品信息</t>
         </is>
       </c>
       <c r="E5" s="12" t="inlineStr">
         <is>
-          <t>/api/energy/energy/get_gun_list</t>
+          <t>/api/energy/energy/get_energy_price_list</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -9589,7 +9622,7 @@
       </c>
       <c r="H5" s="53" t="inlineStr">
         <is>
-          <t>{"type":1,"merchant_type":"1001","status":1,"token":"62479b451c1347fd06be6e684ce8b737823a4bb0","merchant_id":"10001"}</t>
+          <t>{"merchant_type":1001,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
         </is>
       </c>
       <c r="I5" s="21" t="n"/>
@@ -9601,23 +9634,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '2945', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2946', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '1', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2947', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '1406', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-50#车用柴油', 'energy_number': '-50', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3066', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '1404', 'group_num': '', 'status': '1', 'price': '1900', 'admin_id': '1', 'start_time': '1600963200', 'energy_name': '-20#车用柴油', 'energy_number': '-20', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '299', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '1', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2965', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '301', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '2002', 'group_num': '1', 'status': '1', 'price': '39000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '97#车用汽油', 'energy_number': '97', 'energy_type': '1', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '302', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '2002', 'group_num': '1', 'status': '1', 'price': '39000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '97#车用汽油', 'energy_number': '97', 'energy_type': '1', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2985', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2949', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2950', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '1', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2987', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '1602', 'group_num': '', 'status': '1', 'price': '41900', 'admin_id': '1', 'start_time': '1603712349', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2951', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2952', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '2026', 'group_num': '1', 'status': '1', 'price': '34500', 'admin_id': '1', 'start_time': '1603717052', 'energy_name': 'CNG', 'energy_number': 'CNG', 'energy_type': '3', 'unit': 'm³', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '2986', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '1601', 'group_num': '', 'status': '1', 'price': '20000', 'admin_id': '1', 'start_time': '1603715289', 'energy_name': '10#车用柴油', 'energy_number': '10', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2955', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '2025', 'group_num': '', 'status': '1', 'price': '53500', 'admin_id': '1', 'start_time': '1603717052', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '6', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '2957', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '400', 'group_num': '', 'status': '1', 'retail_status': 1}, {'id': '3029', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3071', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '19号枪', 'gun_number': '19', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}, {'id': '3072', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '2004', 'group_num': '', 'status': '1', 'price': '23900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '3074', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '1406', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-50#车用柴油', 'energy_number': '-50', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3075', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '1503', 'group_num': '', 'status': '1', 'price': '12900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3076', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3077', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '2007', 'group_num': '', 'status': '1', 'price': '29900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油（国标）', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '3078', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '100号枪', 'gun_number': '100', 'gun_type': '1001', 'energy_id': '2007', 'group_num': '', 'status': '1', 'price': '29900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油（国标）', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}, {'id': '3073', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}], 'request_id': 'b8a3706679cd1c73044f4c28f705fd95'}</t>
-        </is>
-      </c>
-      <c r="O5" s="65" t="inlineStr">
-        <is>
-          <t>0.264</t>
-        </is>
-      </c>
-      <c r="P5" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="63" t="n"/>
-      <c r="R5" s="63" t="inlineStr">
+      <c r="N5" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '15471', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '9.00', 'admin_id': '4241', 'start_time': '2020-10-29 11:10:50', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15464', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '5.67', 'admin_id': '820', 'start_time': '2020-10-23 22:14:36', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15461', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '11.00', 'admin_id': '820', 'start_time': '2020-10-23 21:57:38', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15458', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '8.00', 'admin_id': '820', 'start_time': '2020-10-23 21:29:29', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15442', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '2', 'price': '8.70', 'admin_id': '820', 'start_time': '2020-10-23 19:18:48', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15432', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '130', 'price': '4.00', 'admin_id': '820', 'start_time': '2020-10-23 18:08:09', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'unit': 'kg', 'status': 1, 'admin_name': ''}, {'id': '15409', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.00', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15411', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '0.98', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15410', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '0.95', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15389', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '1.00', 'admin_id': '820', 'start_time': '2020-08-06 17:28:50', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}], 'request_id': '09900d3ef4a9ff626d8c0e4fd18d91c3'}</t>
+        </is>
+      </c>
+      <c r="O5" s="76" t="inlineStr">
+        <is>
+          <t>0.299</t>
+        </is>
+      </c>
+      <c r="P5" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="74" t="n"/>
+      <c r="R5" s="74" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9636,17 +9669,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>营销活动</t>
+          <t>油枪列表</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>创建满额送</t>
+          <t>获取油站零管油枪</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>/api/activities/send-gift-with-purchase-activity/create</t>
+          <t>/api/energy/energy/get_gun_list</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -9659,47 +9692,487 @@
           <t>{'Content-Type': 'application/json'}</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+      <c r="H6" s="53" t="inlineStr">
+        <is>
+          <t>{"type":1,"merchant_type":"1001","status":1,"token":"62479b451c1347fd06be6e684ce8b737823a4bb0","merchant_id":"10001"}</t>
         </is>
       </c>
       <c r="I6" s="21" t="n"/>
       <c r="J6" s="21" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
+      <c r="K6" s="3" t="n"/>
       <c r="L6" s="3" t="n"/>
       <c r="M6" s="3" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="64" t="inlineStr">
-        <is>
-          <t>{'status': 10005, 'info': '智慧第一加油站在该时间段内已有活动，请勿重复创建', 'reason': '', 'data': [], 'request_id': '59dfdc38da0047cee130bc263cb222c9'}</t>
-        </is>
-      </c>
-      <c r="O6" s="65" t="inlineStr">
-        <is>
-          <t>0.280</t>
-        </is>
-      </c>
-      <c r="P6" s="63" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="66" t="inlineStr">
-        <is>
-          <t>{"status":10005,"info":"\u667a\u6167\u7b2c\u4e00\u52a0\u6cb9\u7ad9\u5728\u8be5\u65f6\u95f4\u6bb5\u5185\u5df2\u6709\u6d3b\u52a8\uff0c\u8bf7\u52ff\u91cd\u590d\u521b\u5efa","reason":"","data":[],"request_id":"59dfdc38da0047cee130bc263cb222c9"}</t>
-        </is>
-      </c>
-      <c r="R6" s="66" t="inlineStr">
-        <is>
-          <t>fail</t>
+      <c r="N6" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10328', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10329', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10311', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10312', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10340', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10341', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10342', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1524', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '31号枪', 'gun_number': '31', 'gun_type': '1001', 'energy_id': '108', 'group_num': 'test', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}], 'request_id': '2271b154104187fe77441e447de59b35'}</t>
+        </is>
+      </c>
+      <c r="O6" s="76" t="inlineStr">
+        <is>
+          <t>0.425</t>
+        </is>
+      </c>
+      <c r="P6" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="74" t="n"/>
+      <c r="R6" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" s="28">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>创建优惠券</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>/api/coupon/coupons/create_coupons</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G7" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>{"coupon_name":"日常回归-优惠券","coupon_type":1,"price_type":1,"merchant_id":"10002","merchant_type":1001,"coupon_price":"10","coupon_time_type":1,"coupon_start_time":"2020-12-01 00:00:00","coupon_end_time":"2020-12-01 23:59:59","platform":[1,2],"remark":"日常回归点-优惠券创建","desc":{},"amount_rule":[{"limit_type":1,"amount_limit":1,"product_id":["605","604","130","602","3","402","102","2","1","6","4","5","105","108"]}],"date_time_rule":[],"wx_coupons":{"color":"Color020"},"setData":0,"is_open_wx_coupon":2,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0"}</t>
+        </is>
+      </c>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N7" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '10409', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 166, 'identify_rule_id': 0, 'region_rule_id': 167, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\nLNG\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u96f6\\u7ba1-\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1606884276, 'update_time': 1606884276, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1606884274, 'end_time': 1606884868, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': '2c40bf5516255361e45be2cae6e5aae4'}</t>
+        </is>
+      </c>
+      <c r="O7" s="76" t="inlineStr">
+        <is>
+          <t>0.511</t>
+        </is>
+      </c>
+      <c r="P7" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="74" t="n"/>
+      <c r="R7" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1" s="28">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>激活优惠券</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>/api/coupon/coupons/activation_coupon</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G8" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>{"coupon_id":"2506","merchant_type":"1001","merchant_id":"10001","token":"46c32cf591caf138619fbbb77f72ae8002f82ca1"}</t>
+        </is>
+      </c>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N8" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': True, 'request_id': '3c65abc924df09d3a6b1fff4f321d8d6'}</t>
+        </is>
+      </c>
+      <c r="O8" s="76" t="inlineStr">
+        <is>
+          <t>0.225</t>
+        </is>
+      </c>
+      <c r="P8" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="74" t="n"/>
+      <c r="R8" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1" s="28">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>创建满额送活动</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>/api/activities/send-gift-with-purchase-activity/create</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G9" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+        </is>
+      </c>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N9" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '2419'}, 'request_id': '54819bb3d33824e6cffae619de6fe243'}</t>
+        </is>
+      </c>
+      <c r="O9" s="76" t="inlineStr">
+        <is>
+          <t>0.299</t>
+        </is>
+      </c>
+      <c r="P9" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="74" t="n"/>
+      <c r="R9" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1" s="28">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>创建价立减活动</t>
+        </is>
+      </c>
+      <c r="E10" s="12" t="inlineStr">
+        <is>
+          <t>/api/activities/price-reduce-activity/create</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G10" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-价立减","arr_merchant_ids":["10001"],"start_time":"2020-12-02 00:00:00","end_time":"2021-01-02 23:59:59","activity_people":"1","user_group_rule":[],"reduce_way":"1","user_limit":"1","limit_day":0,"limit_number":0,"repeat_way":1,"activity_rule":[{"arr_time_rule":{"arr_repeat_time":[],"arr_repeat_day":[0]},"arr_oil_ids":[0],"cost_origin_price":100,"discount_per_litre":30}],"is_oil_card_pay":"0","token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+        </is>
+      </c>
+      <c r="I10" s="21" t="n"/>
+      <c r="J10" s="21" t="n"/>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N10" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '6040'}, 'request_id': 'fc35e2bac58a557a49c88181c63823ec'}</t>
+        </is>
+      </c>
+      <c r="O10" s="76" t="inlineStr">
+        <is>
+          <t>0.233</t>
+        </is>
+      </c>
+      <c r="P10" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="74" t="n"/>
+      <c r="R10" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1" s="28">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>创建满额减活动</t>
+        </is>
+      </c>
+      <c r="E11" s="12" t="inlineStr">
+        <is>
+          <t>/api/activities/full_reduction_activity/create</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G11" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-满额减","arr_merchant_ids":["10002"],"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 10:25:59","activity_people":"1","full_reduction_type":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"rules":[{"man_award":10,"step_award":1,"cost_type":1}]}],"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I11" s="21" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N11" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1404'}, 'request_id': 'ecad511f9419cfb6453d5d490553279c'}</t>
+        </is>
+      </c>
+      <c r="O11" s="76" t="inlineStr">
+        <is>
+          <t>0.319</t>
+        </is>
+      </c>
+      <c r="P11" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="74" t="n"/>
+      <c r="R11" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1" s="28">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>创建红包活动</t>
+        </is>
+      </c>
+      <c r="E12" s="12" t="inlineStr">
+        <is>
+          <t>/api/activity/red_pack/create</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G12" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>{"name":"日常回归-红包","mode_url":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default.png","main_color":"#FED0B0","font_color":"#333","theme_config":{"pageBg":"#F6F7FB","panelHeaderBg":"#D6D6D6","panelBodyBg":"#FFFFFF","panelFt":"#333333","btnBg":"#1E3CFA","btnFt":"#FFFFFF","noDataBtnBg":"#1E3CFA","noDataBtnFt":"#FFFFFF","tipFontColor":"#333333"},"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 11:00:00","num":1,"station_range":"10002","limit":{"getLimit":{"days":1,"times":1,"lastUse":"0"},"userLimit":{"type":"1"},"authLimit":{"type":1},"shareLimit":{"type":"1","title":"免费的优惠券，赶紧抢","pic":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default_share.png"}},"limit_content":"1.有效期：2020-12-02 00:00:00至2020-12-02 11:00:00\n2.红包内容：日常回归-优惠券1x1\n每个红包送10积分\n每个红包送10成长值\n3.可领取用户：所有用户\n4.分享限制：支持分享\n5.领取限制：每个用户1天可领取1次","award":[{"type":1,"value":[{"id":"10347","num":1}]},{"type":2,"value":10},{"type":3,"value":10}],"logo_url":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png","token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I12" s="21" t="n"/>
+      <c r="J12" s="21" t="n"/>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N12" s="75" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'appid': 'wx73a8de5287159207', 'stationName': '零管-南山第二加油站', 'pathInfo': {'qr_url': 'https://api.shylwlkj.com/q/?r=1&amp;a=game&amp;c=5fc71bb86b738', 'path': '/activityPackage/redpacketActivity/redpacket/redpacket?q=c%3D5fc71bb86b738'}}], 'request_id': '846f180d3a3ef4bf6ea57a79419fb8ba'}</t>
+        </is>
+      </c>
+      <c r="O12" s="76" t="inlineStr">
+        <is>
+          <t>0.462</t>
+        </is>
+      </c>
+      <c r="P12" s="74" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="74" t="n"/>
+      <c r="R12" s="74" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -9712,5 +10185,442 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="http://106.52.206.103:30020/api/user/Login/login_admin" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="28" min="1" max="2"/>
+    <col width="15" bestFit="1" customWidth="1" style="28" min="3" max="3"/>
+    <col width="40.5" bestFit="1" customWidth="1" style="28" min="4" max="4"/>
+    <col width="36" bestFit="1" customWidth="1" style="28" min="5" max="5"/>
+    <col width="8.83203125" bestFit="1" customWidth="1" style="28" min="6" max="6"/>
+    <col width="55.6640625" bestFit="1" customWidth="1" style="28" min="7" max="7"/>
+    <col width="97.1640625" bestFit="1" customWidth="1" style="69" min="8" max="8"/>
+    <col width="52" customWidth="1" style="28" min="9" max="9"/>
+    <col width="39.83203125" customWidth="1" style="28" min="10" max="10"/>
+    <col width="9.6640625" bestFit="1" customWidth="1" style="28" min="11" max="11"/>
+    <col width="41.1640625" customWidth="1" style="28" min="12" max="12"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" style="28" min="13" max="13"/>
+    <col width="86.5" customWidth="1" style="28" min="14" max="14"/>
+    <col width="6.6640625" bestFit="1" customWidth="1" style="28" min="15" max="15"/>
+    <col width="15" bestFit="1" customWidth="1" style="28" min="16" max="16"/>
+    <col width="10.6640625" bestFit="1" customWidth="1" style="28" min="17" max="17"/>
+    <col width="6.83203125" bestFit="1" customWidth="1" style="28" min="18" max="18"/>
+    <col width="10.83203125" customWidth="1" style="9" min="19" max="32"/>
+    <col width="10.83203125" customWidth="1" style="9" min="33" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" s="28">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>用例名称</t>
+        </is>
+      </c>
+      <c r="B1" s="82" t="inlineStr">
+        <is>
+          <t>POS机接口冒烟测试</t>
+        </is>
+      </c>
+      <c r="C1" s="83" t="n"/>
+      <c r="D1" s="83" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="21" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="42" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="24" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="5" t="n"/>
+      <c r="R1" s="5" t="n"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" s="28">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>用例说明</t>
+        </is>
+      </c>
+      <c r="B2" s="80" t="n"/>
+      <c r="C2" s="81" t="n"/>
+      <c r="D2" s="81" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="27" t="n"/>
+      <c r="H2" s="18" t="n"/>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>{"admin_name":"hang0813002","password":"wh0813"}</t>
+        </is>
+      </c>
+      <c r="J2" s="21" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="42" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="40" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" s="28">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>项目名称</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>接口名称</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>标题</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>updatadict</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>timedata</t>
+        </is>
+      </c>
+      <c r="L3" s="16" t="inlineStr">
+        <is>
+          <t>associateid</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>checkstatus</t>
+        </is>
+      </c>
+      <c r="N3" s="41" t="inlineStr">
+        <is>
+          <t>response</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>times</t>
+        </is>
+      </c>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>httpcoderesult</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>error_msg</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1" s="28">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>商户后台登录</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>/api/user/Login/login_admin</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G4" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>{"admin_name":"hang081302","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
+        </is>
+      </c>
+      <c r="I4" s="21" t="n"/>
+      <c r="J4" s="21" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N4" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5308', 'admin_name': 'hang081302', 'real_name': '\xa0王杭-南山第二', 'admin_type': '2', 'mobile': '15672655599', 'last_login_time': '1606894375', 'status': '1', 'create_time': '1605607335', 'update_time': '1606894375', 'token': 'aebe4cd5e9833946db8f59585386ddb9bae51e8b', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
+        </is>
+      </c>
+      <c r="O4" s="87" t="inlineStr">
+        <is>
+          <t>0.913</t>
+        </is>
+      </c>
+      <c r="P4" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="85" t="inlineStr"/>
+      <c r="R4" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1" s="28">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>获取加油卡列表</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>获取当前站加油卡</t>
+        </is>
+      </c>
+      <c r="E5" s="12" t="inlineStr">
+        <is>
+          <t>/api/order/Recharge/rechargeListForSearch</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G5" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>{"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I5" s="21" t="n"/>
+      <c r="J5" s="21" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N5" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '118', 'energy_number': '98(开票)'}, {'energy_id': '162', 'energy_number': '98(周末价)'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002', '10001', '10010', '10011', '10004', '10012', '20091'], 'merchant_names': {'10002': '零管-南山第二加油站', '10001': '能链第一加油站', '10010': '测试验收第二加油站', '10011': '测试验收第一加油站', '10004': '由连网络测试加油站', '10012': '费率专用', '20091': '南山第四加油站'}}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 20, 'create_time': '1593412927', 'update_time': '1593723694', 'status': '0', 'is_del': '0', 'update_date': '2020-06-29 14:42:07', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '零管-南山第二加油站'}}], 'request_id': '58c5fd95b5d9a51a59c6cbc5978c9d1d'}</t>
+        </is>
+      </c>
+      <c r="O5" s="87" t="inlineStr">
+        <is>
+          <t>0.390</t>
+        </is>
+      </c>
+      <c r="P5" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="85" t="inlineStr"/>
+      <c r="R5" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1" s="28">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>创建充值送券活动</t>
+        </is>
+      </c>
+      <c r="E6" s="12" t="inlineStr">
+        <is>
+          <t>/api/activities/recharge_send_coupon_activity/create</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G6" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-充值送券","user_limit":1,"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 12:30:59","activity_rule":[{"arr_oil_card_ids":[0],"recharge_award":[{"recharge_money":1,"arr_coupon_id_amount":{"10347":1}}]}],"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I6" s="21" t="n"/>
+      <c r="J6" s="21" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N6" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '248'}, 'request_id': '93be11892c1fc1793f5f33a75ba8258c'}</t>
+        </is>
+      </c>
+      <c r="O6" s="87" t="inlineStr">
+        <is>
+          <t>0.491</t>
+        </is>
+      </c>
+      <c r="P6" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="85" t="inlineStr"/>
+      <c r="R6" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1" s="28">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="12" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="30" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="67" t="n"/>
+      <c r="O7" s="68" t="n"/>
+      <c r="P7" s="66" t="n"/>
+      <c r="Q7" s="66" t="n"/>
+      <c r="R7" s="66" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="http://106.52.206.103:30020/api/user/Login/login_admin" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Test_Report/excel_report/Test_Case.xlsx
+++ b/Test_Report/excel_report/Test_Case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -227,10 +227,20 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <color rgb="002B9E54"/>
     </font>
     <font>
       <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00FF4588"/>
     </font>
   </fonts>
   <fills count="3">
@@ -341,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,13 +599,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9335,10 +9351,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -9372,7 +9388,7 @@
       </c>
       <c r="B1" s="82" t="inlineStr">
         <is>
-          <t>POS机接口冒烟测试</t>
+          <t>商户后台接口冒烟测试</t>
         </is>
       </c>
       <c r="C1" s="83" t="n"/>
@@ -9562,23 +9578,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5308', 'admin_name': 'hang081302', 'real_name': '\xa0王杭-南山第二', 'admin_type': '2', 'mobile': '15672655599', 'last_login_time': '1606877594', 'status': '1', 'create_time': '1605607335', 'update_time': '1606877594', 'token': '6365cb987c458eeb362ac09600023103cef32eb6', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
-        </is>
-      </c>
-      <c r="O4" s="76" t="inlineStr">
-        <is>
-          <t>0.705</t>
-        </is>
-      </c>
-      <c r="P4" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="74" t="n"/>
-      <c r="R4" s="74" t="inlineStr">
+      <c r="N4" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5308', 'admin_name': 'hang081302', 'real_name': '\xa0王杭-南山第二', 'admin_type': '2', 'mobile': '15672655599', 'last_login_time': '1606904919', 'status': '1', 'create_time': '1605607335', 'update_time': '1606904919', 'token': '122ada1a88c189395c934dd65945cbf697b40017', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
+        </is>
+      </c>
+      <c r="O4" s="87" t="inlineStr">
+        <is>
+          <t>1.080</t>
+        </is>
+      </c>
+      <c r="P4" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="85" t="inlineStr"/>
+      <c r="R4" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9634,23 +9650,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '15471', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '9.00', 'admin_id': '4241', 'start_time': '2020-10-29 11:10:50', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15464', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '5.67', 'admin_id': '820', 'start_time': '2020-10-23 22:14:36', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15461', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '11.00', 'admin_id': '820', 'start_time': '2020-10-23 21:57:38', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15458', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '8.00', 'admin_id': '820', 'start_time': '2020-10-23 21:29:29', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15442', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '2', 'price': '8.70', 'admin_id': '820', 'start_time': '2020-10-23 19:18:48', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15432', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '130', 'price': '4.00', 'admin_id': '820', 'start_time': '2020-10-23 18:08:09', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'unit': 'kg', 'status': 1, 'admin_name': ''}, {'id': '15409', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.00', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15411', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '0.98', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15410', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '0.95', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15389', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '1.00', 'admin_id': '820', 'start_time': '2020-08-06 17:28:50', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}], 'request_id': '09900d3ef4a9ff626d8c0e4fd18d91c3'}</t>
-        </is>
-      </c>
-      <c r="O5" s="76" t="inlineStr">
-        <is>
-          <t>0.299</t>
-        </is>
-      </c>
-      <c r="P5" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="74" t="n"/>
-      <c r="R5" s="74" t="inlineStr">
+      <c r="N5" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'id': '15471', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '604', 'price': '9.00', 'admin_id': '4241', 'start_time': '2020-10-29 11:10:50', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15464', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '1', 'price': '5.67', 'admin_id': '820', 'start_time': '2020-10-23 22:14:36', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15461', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '105', 'price': '11.00', 'admin_id': '820', 'start_time': '2020-10-23 21:57:38', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15458', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '3', 'price': '8.00', 'admin_id': '820', 'start_time': '2020-10-23 21:29:29', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15442', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '2', 'price': '8.70', 'admin_id': '820', 'start_time': '2020-10-23 19:18:48', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15432', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '130', 'price': '4.00', 'admin_id': '820', 'start_time': '2020-10-23 18:08:09', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'unit': 'kg', 'status': 1, 'admin_name': ''}, {'id': '15409', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '6', 'price': '1.00', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '89#车用汽油', 'energy_number': '89', 'energy_type': '1', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15411', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '4', 'price': '0.98', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15410', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '5', 'price': '0.95', 'admin_id': '1314', 'start_time': '2020-09-27 12:04:02', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '15389', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '605', 'price': '1.00', 'admin_id': '820', 'start_time': '2020-08-06 17:28:50', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '13807', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '102', 'price': '1.00', 'admin_id': '1072', 'start_time': '2020-07-17 10:33:23', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8586', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '402', 'price': '2.32', 'admin_id': '927', 'start_time': '2020-06-01 17:29:51', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'standard_name': '京VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_jing.png', 'type_name': '汽油', 'type_id': '1', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '8579', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '602', 'price': '0.56', 'admin_id': '927', 'start_time': '2020-06-01 17:29:37', 'energy_name': '98#车用乙醇汽油', 'energy_number': '98(乙醇)', 'energy_type': '5', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '乙醇汽油', 'type_id': '5', 'unit': 'L', 'status': 1, 'admin_name': ''}, {'id': '1763', 'merchant_type': '1001', 'merchant_id': '10002', 'energy_id': '108', 'price': '2.10', 'admin_id': '181', 'start_time': '2020-01-09 11:53:59', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'unit': 'L', 'status': 1, 'admin_name': ''}], 'request_id': 'ea0ac927f753281a3642cceb5965e1b7'}</t>
+        </is>
+      </c>
+      <c r="O5" s="88" t="inlineStr">
+        <is>
+          <t>0.904</t>
+        </is>
+      </c>
+      <c r="P5" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="85" t="inlineStr"/>
+      <c r="R5" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9706,23 +9722,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10328', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10329', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '2', 'group_num': '', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10311', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10312', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10340', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10341', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10342', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '1', 'group_num': '', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1524', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '31号枪', 'gun_number': '31', 'gun_type': '1001', 'energy_id': '108', 'group_num': 'test', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}], 'request_id': '2271b154104187fe77441e447de59b35'}</t>
-        </is>
-      </c>
-      <c r="O6" s="76" t="inlineStr">
-        <is>
-          <t>0.425</t>
-        </is>
-      </c>
-      <c r="P6" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="74" t="n"/>
-      <c r="R6" s="74" t="inlineStr">
+      <c r="N6" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '10307', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '108', 'group_num': '', 'status': '1', 'price': '21000', 'admin_id': '181', 'start_time': '1578542039', 'energy_name': '0#车用柴油（高标）', 'energy_number': '(高标)0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1', 'group_num': 'test', 'status': '1', 'price': '56700', 'admin_id': '820', 'start_time': '1603462476', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1516', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1517', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10281', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '604', 'group_num': '测试001', 'status': '1', 'price': '90000', 'admin_id': '4241', 'start_time': '1603941050', 'energy_name': '可兰素', 'energy_number': '可兰素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10282', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '605', 'group_num': '测试001', 'status': '1', 'price': '10000', 'admin_id': '820', 'start_time': '1596706130', 'energy_name': '车用尿素', 'energy_number': '车用尿素', 'energy_type': '6', 'unit': 'L', 'standard_name': '尿素', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '10288', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1525', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '130', 'group_num': 'test', 'status': '1', 'price': '40000', 'admin_id': '820', 'start_time': '1603447689', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '3', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '1523', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '105', 'group_num': '测试001', 'status': '1', 'price': '110000', 'admin_id': '820', 'start_time': '1603461458', 'energy_name': '92#车用汽油（高标）', 'energy_number': '(高标)92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10289', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1526', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '2', 'group_num': '测试001', 'status': '1', 'price': '87000', 'admin_id': '820', 'start_time': '1603451928', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '1518', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '3', 'group_num': '测试001', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '9053', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10290', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10291', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '10292', 'merchant_type': '1001', 'merchant_id': '10002', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '3', 'group_num': '', 'status': '1', 'price': '80000', 'admin_id': '820', 'start_time': '1603459769', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}], 'request_id': '614daf03269336ac21c106c9216f17ec'}</t>
+        </is>
+      </c>
+      <c r="O6" s="87" t="inlineStr">
+        <is>
+          <t>1.032</t>
+        </is>
+      </c>
+      <c r="P6" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q6" s="85" t="inlineStr"/>
+      <c r="R6" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9741,17 +9757,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>营销活动</t>
+          <t>获取加油卡列表</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>创建优惠券</t>
+          <t>获取当前站加油卡</t>
         </is>
       </c>
       <c r="E7" s="12" t="inlineStr">
         <is>
-          <t>/api/coupon/coupons/create_coupons</t>
+          <t>/api/order/Recharge/rechargeListForSearch</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -9766,7 +9782,7 @@
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>{"coupon_name":"日常回归-优惠券","coupon_type":1,"price_type":1,"merchant_id":"10002","merchant_type":1001,"coupon_price":"10","coupon_time_type":1,"coupon_start_time":"2020-12-01 00:00:00","coupon_end_time":"2020-12-01 23:59:59","platform":[1,2],"remark":"日常回归点-优惠券创建","desc":{},"amount_rule":[{"limit_type":1,"amount_limit":1,"product_id":["605","604","130","602","3","402","102","2","1","6","4","5","105","108"]}],"date_time_rule":[],"wx_coupons":{"color":"Color020"},"setData":0,"is_open_wx_coupon":2,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0"}</t>
+          <t>{"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
         </is>
       </c>
       <c r="I7" s="21" t="n"/>
@@ -9778,23 +9794,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N7" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '10409', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 166, 'identify_rule_id': 0, 'region_rule_id': 167, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\nLNG\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u96f6\\u7ba1-\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1606884276, 'update_time': 1606884276, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1606884274, 'end_time': 1606884868, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': '2c40bf5516255361e45be2cae6e5aae4'}</t>
-        </is>
-      </c>
-      <c r="O7" s="76" t="inlineStr">
-        <is>
-          <t>0.511</t>
-        </is>
-      </c>
-      <c r="P7" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q7" s="74" t="n"/>
-      <c r="R7" s="74" t="inlineStr">
+      <c r="N7" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '118', 'energy_number': '98(开票)'}, {'energy_id': '162', 'energy_number': '98(周末价)'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002', '10001', '10010', '10011', '10004', '10012', '20091'], 'merchant_names': {'10002': '零管-南山第二加油站', '10001': '能链第一加油站', '10010': '测试验收第二加油站', '10011': '测试验收第一加油站', '10004': '由连网络测试加油站', '10012': '费率专用', '20091': '南山第四加油站'}}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 20, 'create_time': '1593412927', 'update_time': '1593723694', 'status': '0', 'is_del': '0', 'update_date': '2020-06-29 14:42:07', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '零管-南山第二加油站'}}], 'request_id': '3a602f72e35199472b3ff20eda1d2fdc'}</t>
+        </is>
+      </c>
+      <c r="O7" s="88" t="inlineStr">
+        <is>
+          <t>0.298</t>
+        </is>
+      </c>
+      <c r="P7" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q7" s="85" t="inlineStr"/>
+      <c r="R7" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9813,17 +9829,17 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>营销活动</t>
+          <t>获取用户人群</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>激活优惠券</t>
+          <t>获取当前站用户人群</t>
         </is>
       </c>
       <c r="E8" s="12" t="inlineStr">
         <is>
-          <t>/api/coupon/coupons/activation_coupon</t>
+          <t>/api/customer/customer_group/get_user_group</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -9838,7 +9854,7 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>{"coupon_id":"2506","merchant_type":"1001","merchant_id":"10001","token":"46c32cf591caf138619fbbb77f72ae8002f82ca1"}</t>
+          <t>{"customer_group_type":1,"display_rules":"fixed_list,growth_list,user_group,user_tag","merchant_data":[{"merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001,"area_type":3,"key":"10002","_key":0,"title":"零管-南山第二加油站"}],"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
         </is>
       </c>
       <c r="I8" s="21" t="n"/>
@@ -9850,23 +9866,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N8" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': True, 'request_id': '3c65abc924df09d3a6b1fff4f321d8d6'}</t>
-        </is>
-      </c>
-      <c r="O8" s="76" t="inlineStr">
-        <is>
-          <t>0.225</t>
-        </is>
-      </c>
-      <c r="P8" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q8" s="74" t="n"/>
-      <c r="R8" s="74" t="inlineStr">
+      <c r="N8" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'title': '固定等级', 'value': 'fixed_list', 'key': '1', 'children': [{'title': '测试1', 'value': '306', 'key': '1-306'}, {'title': '兼容性测试等级', 'value': '643', 'key': '1-643'}, {'title': '预发布免审核金额2222', 'value': '799', 'key': '1-799'}, {'title': '固定等级1', 'value': '805', 'key': '1-805'}, {'title': '固定等级2', 'value': '806', 'key': '1-806'}, {'title': '固定等级3', 'value': '807', 'key': '1-807'}, {'title': '固定等级4', 'value': '808', 'key': '1-808'}, {'title': '固定等级5', 'value': '809', 'key': '1-809'}, {'title': '固定等级6', 'value': '810', 'key': '1-810'}, {'title': '固定等级7', 'value': '811', 'key': '1-811'}, {'title': '固定等级8', 'value': '812', 'key': '1-812'}, {'title': '固定等级9', 'value': '813', 'key': '1-813'}, {'title': '固定等级10', 'value': '814', 'key': '1-814'}, {'title': '固定等级11', 'value': '815', 'key': '1-815'}, {'title': '固定等级12', 'value': '816', 'key': '1-816'}, {'title': '固定等级13', 'value': '817', 'key': '1-817'}, {'title': '固定等级14', 'value': '818', 'key': '1-818'}, {'title': '固定等级15', 'value': '819', 'key': '1-819'}, {'title': '固定等级16', 'value': '820', 'key': '1-820'}, {'title': '固定等级17', 'value': '821', 'key': '1-821'}, {'title': '固定等级18', 'value': '822', 'key': '1-822'}, {'title': '固定等级19', 'value': '823', 'key': '1-823'}, {'title': '固定等级20', 'value': '824', 'key': '1-824'}, {'title': '固定等级21', 'value': '825', 'key': '1-825'}, {'title': '固定等级22', 'value': '826', 'key': '1-826'}, {'title': '固定等级23', 'value': '827', 'key': '1-827'}, {'title': '固定等级24', 'value': '828', 'key': '1-828'}, {'title': '固定等级25', 'value': '829', 'key': '1-829'}, {'title': '固定等级26', 'value': '830', 'key': '1-830'}, {'title': '固定等级27', 'value': '831', 'key': '1-831'}, {'title': '固定等级28', 'value': '832', 'key': '1-832'}, {'title': '固定等级29', 'value': '833', 'key': '1-833'}, {'title': '固定等级30', 'value': '834', 'key': '1-834'}, {'title': '固定等级31', 'value': '835', 'key': '1-835'}, {'title': '固定等级32', 'value': '836', 'key': '1-836'}, {'title': '固定等级33', 'value': '837', 'key': '1-837'}, {'title': '固定等级34', 'value': '838', 'key': '1-838'}, {'title': '固定等级35', 'value': '839', 'key': '1-839'}, {'title': '固定等级36', 'value': '840', 'key': '1-840'}, {'title': '固定等级37', 'value': '841', 'key': '1-841'}, {'title': '固定等级38', 'value': '842', 'key': '1-842'}, {'title': '固定等级39', 'value': '843', 'key': '1-843'}, {'title': '固定等级40', 'value': '844', 'key': '1-844'}, {'title': '固定等级41', 'value': '845', 'key': '1-845'}, {'title': '固定等级42', 'value': '846', 'key': '1-846'}, {'title': '固定等级43', 'value': '847', 'key': '1-847'}, {'title': '固定等级44', 'value': '848', 'key': '1-848'}, {'title': '固定等级45', 'value': '849', 'key': '1-849'}, {'title': '固定等级46', 'value': '850', 'key': '1-850'}, {'title': '固定等级47', 'value': '851', 'key': '1-851'}, {'title': '固定等级48', 'value': '852', 'key': '1-852'}, {'title': '固定等级49', 'value': '853', 'key': '1-853'}, {'title': '固定等级50', 'value': '854', 'key': '1-854'}, {'title': '固定等级51', 'value': '855', 'key': '1-855'}, {'title': '固定等级52', 'value': '856', 'key': '1-856'}, {'title': '固定等级53', 'value': '857', 'key': '1-857'}, {'title': '固定等级54', 'value': '858', 'key': '1-858'}, {'title': '固定等级55', 'value': '859', 'key': '1-859'}, {'title': '固定等级56', 'value': '860', 'key': '1-860'}, {'title': '固定等级57', 'value': '861', 'key': '1-861'}, {'title': '固定等级58', 'value': '862', 'key': '1-862'}, {'title': '固定等级59', 'value': '863', 'key': '1-863'}, {'title': '固定等级60', 'value': '864', 'key': '1-864'}, {'title': '固定等级61', 'value': '865', 'key': '1-865'}, {'title': '固定等级62', 'value': '866', 'key': '1-866'}, {'title': '固定等级63', 'value': '867', 'key': '1-867'}, {'title': '固定等级64', 'value': '868', 'key': '1-868'}, {'title': '固定等级65', 'value': '869', 'key': '1-869'}, {'title': '固定等级66', 'value': '870', 'key': '1-870'}, {'title': '固定等级67', 'value': '871', 'key': '1-871'}, {'title': '固定等级68', 'value': '872', 'key': '1-872'}, {'title': '固定等级69', 'value': '873', 'key': '1-873'}, {'title': '固定等级70', 'value': '874', 'key': '1-874'}, {'title': '固定等级71', 'value': '875', 'key': '1-875'}, {'title': '固定等级72', 'value': '876', 'key': '1-876'}, {'title': '固定等级73', 'value': '877', 'key': '1-877'}, {'title': '固定等级74', 'value': '878', 'key': '1-878'}, {'title': '固定等级75', 'value': '879', 'key': '1-879'}, {'title': '固定等级76', 'value': '880', 'key': '1-880'}, {'title': '固定等级77', 'value': '881', 'key': '1-881'}, {'title': '固定等级78', 'value': '882', 'key': '1-882'}, {'title': '固定等级79', 'value': '883', 'key': '1-883'}, {'title': '固定等级80', 'value': '884', 'key': '1-884'}, {'title': '固定等级81', 'value': '885', 'key': '1-885'}, {'title': '固定等级82', 'value': '886', 'key': '1-886'}, {'title': '固定等级83', 'value': '887', 'key': '1-887'}, {'title': '固定等级84', 'value': '888', 'key': '1-888'}, {'title': '固定等级85', 'value': '889', 'key': '1-889'}, {'title': '固定等级86', 'value': '890', 'key': '1-890'}, {'title': '固定等级87', 'value': '891', 'key': '1-891'}, {'title': '固定等级88', 'value': '892', 'key': '1-892'}, {'title': '固定等级89', 'value': '893', 'key': '1-893'}, {'title': '固定等级90', 'value': '894', 'key': '1-894'}, {'title': '固定等级91', 'value': '895', 'key': '1-895'}, {'title': '固定等级92', 'value': '896', 'key': '1-896'}, {'title': '固定等级93', 'value': '897', 'key': '1-897'}, {'title': '等级98', 'value': '898', 'key': '1-898'}, {'title': '等级99', 'value': '899', 'key': '1-899'}, {'title': '等级100', 'value': '900', 'key': '1-900'}]}, {'title': '动态等级', 'value': 'growth_list', 'key': '2', 'children': [{'title': '铜卡会员', 'value': '1', 'key': '2-1'}, {'title': '银卡会员', 'value': '2', 'key': '2-2'}, {'title': '金卡会员', 'value': '3', 'key': '2-3'}, {'title': '白金会员', 'value': '4', 'key': '2-4'}, {'title': '钻石会员', 'value': '5', 'key': '2-5'}]}, {'title': '客户分群', 'value': 'user_group', 'key': '3', 'children': [{'title': '剩余金额条件', 'value': '802', 'key': '3-802'}, {'title': '南山', 'value': '784', 'key': '3-784'}, {'title': '加油卡维度01', 'value': '783', 'key': '3-783'}, {'title': '固定人数', 'value': '780', 'key': '3-780'}, {'title': '条件手机号为无', 'value': '705', 'key': '3-705'}, {'title': '客群创建发券', 'value': '74', 'key': '3-74'}, {'title': '加油卡维度', 'value': '767', 'key': '3-767'}, {'title': '01', 'value': '649', 'key': '3-649'}, {'title': '动态铜卡会员', 'value': '281', 'key': '3-281'}, {'title': '消费油品类型', 'value': '781', 'key': '3-781'}]}, {'title': '客户标签', 'value': 'user_tag', 'key': '4', 'children': [{'title': '测试111', 'value': 3, 'key': '4-3'}]}], 'request_id': 'ceba6c9b76323469711cc30e95df4dd8'}</t>
+        </is>
+      </c>
+      <c r="O8" s="88" t="inlineStr">
+        <is>
+          <t>0.223</t>
+        </is>
+      </c>
+      <c r="P8" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q8" s="85" t="inlineStr"/>
+      <c r="R8" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9890,12 +9906,12 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>创建满额送活动</t>
+          <t>创建优惠券</t>
         </is>
       </c>
       <c r="E9" s="12" t="inlineStr">
         <is>
-          <t>/api/activities/send-gift-with-purchase-activity/create</t>
+          <t>/api/coupon/coupons/create_coupons</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -9910,7 +9926,7 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+          <t>{"coupon_name":"日常回归-优惠券","coupon_type":1,"price_type":1,"merchant_id":"10002","merchant_type":1001,"coupon_price":"10","coupon_time_type":1,"coupon_start_time":"2020-12-01 00:00:00","coupon_end_time":"2020-12-01 23:59:59","platform":[1,2],"remark":"日常回归点-优惠券创建","desc":{},"amount_rule":[{"limit_type":1,"amount_limit":1,"product_id":["605","604","130","602","3","402","102","2","1","6","4","5","105","108"]}],"date_time_rule":[],"wx_coupons":{"color":"Color020"},"setData":0,"is_open_wx_coupon":2,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0"}</t>
         </is>
       </c>
       <c r="I9" s="21" t="n"/>
@@ -9926,23 +9942,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N9" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '2419'}, 'request_id': '54819bb3d33824e6cffae619de6fe243'}</t>
-        </is>
-      </c>
-      <c r="O9" s="76" t="inlineStr">
-        <is>
-          <t>0.299</t>
-        </is>
-      </c>
-      <c r="P9" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q9" s="74" t="n"/>
-      <c r="R9" s="74" t="inlineStr">
+      <c r="N9" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': {'coupon_id': '10415', 'coupon_name': '日常回归-优惠券', 'merchant_type': 1001, 'merchant_id': 10002, 'price_type': 1, 'price_rule': '{"price":10}', 'date_time_rule_id': 0, 'amount_rule_id': 178, 'identify_rule_id': 0, 'region_rule_id': 179, 'channel_id': 0, 'type': 1, 'settle_type': 0, 'settle_rule': '[]', 'platform': 3, 'is_settle': 0, 'validate_days': 0, 'card_id': '', 'remark': '日常回归点-优惠券创建', 'desc': '{"amount_rule":"\\u53ef\\u5170\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n92#\\u8f66\\u7528\\u6c7d\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n95#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\nLNG\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n89#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n-10#\\u8f66\\u7528\\u67f4\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n\\u8f66\\u7528\\u5c3f\\u7d20\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n98#\\u8f66\\u7528\\u4e59\\u9187\\u6c7d\\u6cb9\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n0#\\u8f66\\u7528\\u67f4\\u6cb9\\uff08\\u9ad8\\u6807\\uff09\\u539f\\u4ef7\\u6ee11\\u5143\\u53ef\\u7528\\n","date_time_rule":"","region_rule":"\\u96f6\\u7ba1-\\u5357\\u5c71\\u7b2c\\u4e8c\\u52a0\\u6cb9\\u7ad9\\u53ef\\u7528\\n","identify_rule":""}', 'create_time': 1606905246, 'update_time': 1606905246, 'status': 0, 'activation_time': None, 'delete_time': 0, 'coupon_source': 0, 'start_time': 1606905247, 'end_time': 1606905355, 'valid_day': 0, 'limit_count': 0, 'is_open_wx_coupon': 2, 'update_date': None}, 'request_id': '1f16d7f45fa4789204fb197d32ff9d99'}</t>
+        </is>
+      </c>
+      <c r="O9" s="88" t="inlineStr">
+        <is>
+          <t>0.797</t>
+        </is>
+      </c>
+      <c r="P9" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q9" s="85" t="inlineStr"/>
+      <c r="R9" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -9966,12 +9982,12 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>创建价立减活动</t>
+          <t>激活优惠券</t>
         </is>
       </c>
       <c r="E10" s="12" t="inlineStr">
         <is>
-          <t>/api/activities/price-reduce-activity/create</t>
+          <t>/api/coupon/coupons/activation_coupon</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -9986,39 +10002,35 @@
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>{"activity_name":"日常回归-价立减","arr_merchant_ids":["10001"],"start_time":"2020-12-02 00:00:00","end_time":"2021-01-02 23:59:59","activity_people":"1","user_group_rule":[],"reduce_way":"1","user_limit":"1","limit_day":0,"limit_number":0,"repeat_way":1,"activity_rule":[{"arr_time_rule":{"arr_repeat_time":[],"arr_repeat_day":[0]},"arr_oil_ids":[0],"cost_origin_price":100,"discount_per_litre":30}],"is_oil_card_pay":"0","token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+          <t>{"coupon_id":"2506","merchant_type":"1001","merchant_id":"10001","token":"46c32cf591caf138619fbbb77f72ae8002f82ca1"}</t>
         </is>
       </c>
       <c r="I10" s="21" t="n"/>
       <c r="J10" s="21" t="n"/>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
+      <c r="K10" s="3" t="n"/>
       <c r="L10" s="3" t="n"/>
       <c r="M10" s="3" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="N10" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '6040'}, 'request_id': 'fc35e2bac58a557a49c88181c63823ec'}</t>
-        </is>
-      </c>
-      <c r="O10" s="76" t="inlineStr">
-        <is>
-          <t>0.233</t>
-        </is>
-      </c>
-      <c r="P10" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q10" s="74" t="n"/>
-      <c r="R10" s="74" t="inlineStr">
+      <c r="N10" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': True, 'request_id': '4c237a419611fd6f9e3ba6ccfb9b647d'}</t>
+        </is>
+      </c>
+      <c r="O10" s="88" t="inlineStr">
+        <is>
+          <t>0.466</t>
+        </is>
+      </c>
+      <c r="P10" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q10" s="85" t="inlineStr"/>
+      <c r="R10" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -10042,12 +10054,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>创建满额减活动</t>
+          <t>创建满额送活动</t>
         </is>
       </c>
       <c r="E11" s="12" t="inlineStr">
         <is>
-          <t>/api/activities/full_reduction_activity/create</t>
+          <t>/api/activities/send-gift-with-purchase-activity/create</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -10062,7 +10074,7 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>{"activity_name":"日常回归-满额减","arr_merchant_ids":["10002"],"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 10:25:59","activity_people":"1","full_reduction_type":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"rules":[{"man_award":10,"step_award":1,"cost_type":1}]}],"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+          <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
         </is>
       </c>
       <c r="I11" s="21" t="n"/>
@@ -10078,23 +10090,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N11" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1404'}, 'request_id': 'ecad511f9419cfb6453d5d490553279c'}</t>
-        </is>
-      </c>
-      <c r="O11" s="76" t="inlineStr">
-        <is>
-          <t>0.319</t>
-        </is>
-      </c>
-      <c r="P11" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q11" s="74" t="n"/>
-      <c r="R11" s="74" t="inlineStr">
+      <c r="N11" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '2420'}, 'request_id': 'affb4bf6ba0b64625714cab6aca4b628'}</t>
+        </is>
+      </c>
+      <c r="O11" s="88" t="inlineStr">
+        <is>
+          <t>0.487</t>
+        </is>
+      </c>
+      <c r="P11" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q11" s="85" t="inlineStr"/>
+      <c r="R11" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -10118,12 +10130,12 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>创建红包活动</t>
+          <t>创建价立减活动</t>
         </is>
       </c>
       <c r="E12" s="12" t="inlineStr">
         <is>
-          <t>/api/activity/red_pack/create</t>
+          <t>/api/activities/price-reduce-activity/create</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -10138,7 +10150,7 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>{"name":"日常回归-红包","mode_url":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default.png","main_color":"#FED0B0","font_color":"#333","theme_config":{"pageBg":"#F6F7FB","panelHeaderBg":"#D6D6D6","panelBodyBg":"#FFFFFF","panelFt":"#333333","btnBg":"#1E3CFA","btnFt":"#FFFFFF","noDataBtnBg":"#1E3CFA","noDataBtnFt":"#FFFFFF","tipFontColor":"#333333"},"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 11:00:00","num":1,"station_range":"10002","limit":{"getLimit":{"days":1,"times":1,"lastUse":"0"},"userLimit":{"type":"1"},"authLimit":{"type":1},"shareLimit":{"type":"1","title":"免费的优惠券，赶紧抢","pic":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default_share.png"}},"limit_content":"1.有效期：2020-12-02 00:00:00至2020-12-02 11:00:00\n2.红包内容：日常回归-优惠券1x1\n每个红包送10积分\n每个红包送10成长值\n3.可领取用户：所有用户\n4.分享限制：支持分享\n5.领取限制：每个用户1天可领取1次","award":[{"type":1,"value":[{"id":"10347","num":1}]},{"type":2,"value":10},{"type":3,"value":10}],"logo_url":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png","token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+          <t>{"activity_name":"日常回归-价立减","arr_merchant_ids":["10001"],"start_time":"2020-12-02 00:00:00","end_time":"2021-01-02 23:59:59","activity_people":"1","user_group_rule":[],"reduce_way":"1","user_limit":"1","limit_day":0,"limit_number":0,"repeat_way":1,"activity_rule":[{"arr_time_rule":{"arr_repeat_time":[],"arr_repeat_day":[0]},"arr_oil_ids":[0],"cost_origin_price":100,"discount_per_litre":30}],"is_oil_card_pay":"0","token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
         </is>
       </c>
       <c r="I12" s="21" t="n"/>
@@ -10154,23 +10166,555 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N12" s="75" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'appid': 'wx73a8de5287159207', 'stationName': '零管-南山第二加油站', 'pathInfo': {'qr_url': 'https://api.shylwlkj.com/q/?r=1&amp;a=game&amp;c=5fc71bb86b738', 'path': '/activityPackage/redpacketActivity/redpacket/redpacket?q=c%3D5fc71bb86b738'}}], 'request_id': '846f180d3a3ef4bf6ea57a79419fb8ba'}</t>
-        </is>
-      </c>
-      <c r="O12" s="76" t="inlineStr">
-        <is>
-          <t>0.462</t>
-        </is>
-      </c>
-      <c r="P12" s="74" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q12" s="74" t="n"/>
-      <c r="R12" s="74" t="inlineStr">
+      <c r="N12" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '6041'}, 'request_id': 'd5ef5305f09e2826cca79cabcd1700c5'}</t>
+        </is>
+      </c>
+      <c r="O12" s="88" t="inlineStr">
+        <is>
+          <t>0.235</t>
+        </is>
+      </c>
+      <c r="P12" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q12" s="85" t="inlineStr"/>
+      <c r="R12" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="36" customHeight="1" s="28">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>创建满额减活动</t>
+        </is>
+      </c>
+      <c r="E13" s="12" t="inlineStr">
+        <is>
+          <t>/api/activities/full_reduction_activity/create</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G13" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-满额减","arr_merchant_ids":["10002"],"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 10:25:59","activity_people":"1","full_reduction_type":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"rules":[{"man_award":10,"step_award":1,"cost_type":1}]}],"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I13" s="21" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N13" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1405'}, 'request_id': '1916111d20f9dd81f313ddbf6c3c96a3'}</t>
+        </is>
+      </c>
+      <c r="O13" s="88" t="inlineStr">
+        <is>
+          <t>0.475</t>
+        </is>
+      </c>
+      <c r="P13" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q13" s="85" t="inlineStr"/>
+      <c r="R13" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="36" customHeight="1" s="28">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>创建红包活动</t>
+        </is>
+      </c>
+      <c r="E14" s="12" t="inlineStr">
+        <is>
+          <t>/api/activity/red_pack/create</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G14" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>{"name":"日常回归-红包","mode_url":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default.png","main_color":"#FED0B0","font_color":"#333","theme_config":{"pageBg":"#F6F7FB","panelHeaderBg":"#D6D6D6","panelBodyBg":"#FFFFFF","panelFt":"#333333","btnBg":"#1E3CFA","btnFt":"#FFFFFF","noDataBtnBg":"#1E3CFA","noDataBtnFt":"#FFFFFF","tipFontColor":"#333333"},"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 11:00:00","num":1,"station_range":"10002","limit":{"getLimit":{"days":1,"times":1,"lastUse":"0"},"userLimit":{"type":"1"},"authLimit":{"type":1},"shareLimit":{"type":"1","title":"免费的优惠券，赶紧抢","pic":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default_share.png"}},"limit_content":"1.有效期：2020-12-02 00:00:00至2020-12-02 11:00:00\n2.红包内容：日常回归-优惠券1x1\n每个红包送10积分\n每个红包送10成长值\n3.可领取用户：所有用户\n4.分享限制：支持分享\n5.领取限制：每个用户1天可领取1次","award":[{"type":1,"value":[{"id":"10347","num":1}]},{"type":2,"value":10},{"type":3,"value":10}],"logo_url":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png","token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I14" s="21" t="n"/>
+      <c r="J14" s="21" t="n"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N14" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'appid': 'wx73a8de5287159207', 'stationName': '零管-南山第二加油站', 'pathInfo': {'qr_url': 'https://api.shylwlkj.com/q/?r=1&amp;a=game&amp;c=5fc76da427568', 'path': '/activityPackage/redpacketActivity/redpacket/redpacket?q=c%3D5fc76da427568'}}], 'request_id': '86da27411af10b688b6aff506a1c676e'}</t>
+        </is>
+      </c>
+      <c r="O14" s="87" t="inlineStr">
+        <is>
+          <t>1.185</t>
+        </is>
+      </c>
+      <c r="P14" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q14" s="85" t="inlineStr"/>
+      <c r="R14" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1" s="28">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>创建充值送券活动</t>
+        </is>
+      </c>
+      <c r="E15" s="12" t="inlineStr">
+        <is>
+          <t>/api/activities/recharge_send_coupon_activity/create</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G15" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-充值送券","user_limit":1,"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 12:30:59","activity_rule":[{"arr_oil_card_ids":[0],"recharge_award":[{"recharge_money":1,"arr_coupon_id_amount":{"10347":1}}]}],"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I15" s="21" t="n"/>
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N15" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '249'}, 'request_id': '620493d889ca7d8770c7d5cc7ca199c5'}</t>
+        </is>
+      </c>
+      <c r="O15" s="88" t="inlineStr">
+        <is>
+          <t>0.588</t>
+        </is>
+      </c>
+      <c r="P15" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q15" s="85" t="inlineStr"/>
+      <c r="R15" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="36" customHeight="1" s="28">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>创建手动发券活动</t>
+        </is>
+      </c>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>/api/manual/manual/create</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G16" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-手动发券","send_time":"2020-12-02 16:37:19","activity_people":2,"user_group_rule":["2-1"],"coupon_json":[{"coupon_id":"10347","send_num":1}],"notice_type":0,"merchant_type":1001,"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I16" s="21" t="n"/>
+      <c r="J16" s="21" t="n"/>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N16" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 10086, 'info': '发券时间不能小于当前时间', 'reason': '', 'data': [], 'request_id': '284c9e46ba39c432bde235f3190c5f2b'}</t>
+        </is>
+      </c>
+      <c r="O16" s="88" t="inlineStr">
+        <is>
+          <t>0.368</t>
+        </is>
+      </c>
+      <c r="P16" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q16" s="89" t="inlineStr">
+        <is>
+          <t>{"status":10086,"info":"\u53d1\u5238\u65f6\u95f4\u4e0d\u80fd\u5c0f\u4e8e\u5f53\u524d\u65f6\u95f4","reason":"","data":[],"request_id":"284c9e46ba39c432bde235f3190c5f2b"}</t>
+        </is>
+      </c>
+      <c r="R16" s="89" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="36" customHeight="1" s="28">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>创建幸运抽奖活动</t>
+        </is>
+      </c>
+      <c r="E17" s="12" t="inlineStr">
+        <is>
+          <t>/api/wheel/wheel_game/create</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G17" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>{"activity_name":"日常回归-幸运抽奖","start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","station_range":[{"appid":"wx73a8de5287159207","merchant_ids":["10002"]}],"activity_type":2,"activity_people":1,"user_group_rule":[],"template_id":"1","activity_title":"幸运抽奖抽抽抽~","activity_desc":"日常回归点-幸运抽奖","default_draw_count":1,"activity_rule":[{"type":1,"detail":[{"oil_ids":[-1],"price_type":1,"money":10}]}],"prize_data":[{"prize_type":1,"prize_name":"一等奖","total_amount":10,"rate":"10","prize_detail":[{"coupon_id":"10347","coupon_name":"创建优惠券-测试1","coupon_price":[10],"num":1,"prize_img":"https://uat-authentication-1258898587.cos.ap-beijing.myqcloud.com/public/2020/12/02/17/a98c69a5d14432b7ae18bb9fe9a2.png"}]},{"prize_type":2,"prize_name":"二等奖","total_amount":100,"rate":"20","prize_detail":{"credit_cnt":1000}},{"prize_type":2,"prize_name":"三等奖","total_amount":200,"rate":"30","prize_detail":{"credit_cnt":500}},{"prize_type":3,"prize_name":"四等奖","total_amount":500,"rate":"40"}],"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I17" s="21" t="n"/>
+      <c r="J17" s="21" t="n"/>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N17" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'activity_id': '597', 'activity_name': '日常回归-幸运抽奖', 'start_time': '2020-12-02 18:34:07', 'end_time': '2020-12-02 18:35:55', 'merchant_data': {'wx73a8de5287159207': {'app_id': 'wx73a8de5287159207', 'app_type': 2, 'appid_name': None, 'activity_code': '8ea71083a8b8cfbfb5abab74fc311364', 'qr_url': 'https://api.shylwlkj.com/q/?u=r&amp;r=1&amp;p=game&amp;a=dzp&amp;id=597', 'path': '/activityPackage/turntableActivity/index/index?id=597', 'merchant_list': [{'merchant_type': 1001, 'merchant_id': 10002, 'merchant_name': '--'}]}}}, 'request_id': '695e0769d81fa826e94ad8464f2ab865'}</t>
+        </is>
+      </c>
+      <c r="O17" s="88" t="inlineStr">
+        <is>
+          <t>0.340</t>
+        </is>
+      </c>
+      <c r="P17" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q17" s="85" t="inlineStr"/>
+      <c r="R17" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="36" customHeight="1" s="28">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>创建好友邀请活动</t>
+        </is>
+      </c>
+      <c r="E18" s="12" t="inlineStr">
+        <is>
+          <t>/api/invite/invite-activity/create</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G18" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>{"activity":{"activity_name":"日常回归-好友邀请","template_ids":0,"page_style":{"homePage":{"headerImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/14/a3e81f14cfa8893cd46ee280c3c2.png","invitationImgList":{"inviteFriends":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/45639060966ff759e9e394e39ae7.png","faceInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/943b48bdd54e7bcb47f626f5789b.png","postersInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/0e196fdd10b1251b5b7eac59a200.png","postersBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/03/16/6836e862788acb42b67414f737b3.png"},"awardRanking":{"firstImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/b05a5c05d0d984f88ef20fae1bdb.png","secondImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/191c6363f9ac6c3972cfa5d82c28.png","thirdImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/ab5dc2d794029f74244cd2752686.png","defaultUserImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/02/16/76e411d0ab0791739669d470938e.png"}},"myRewardPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2019/12/12/11/6ca03a134e884e84e86e1427bb20.png"},"activityRulesPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/20/7a3f11f089d4ae09235d99928261.png"},"beInvitedPageBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191127/14/2ceccbf61842af679219859cb06d.png","beInvitedCouponsImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/27/15/399d3477946fb1bc53c5a09f3d57.png","icon":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/878aee8e814d3c213224e0e1bf80.png","fontColor":{"activityRulesColor":"#2600AA","shufflingAndReward":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"contentAndTitle":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"homePageBtnColor":"#733145","otherBtn":{"mainColor":"#2600AA","auxiliaryColor":"rgba(38, 0, 170, 0.6)"},"postersColor":"rgba(51, 51, 51, 1)","auxiliaryBtnColor":"#F0D701"},"btnBg":{"mainBg":"#F0D701","auxiliaryBg":"rgba(240, 215, 1, 0.5)"},"pageBg":{"invitationPageBg":"rgba(16, 1, 61, 1)","beInvitedpageBg":"rgba(16, 1, 61, 1)","rewardListBg":"rgba(16, 1, 61, 1)"},"panelBg":{"mainBg":"rgba(69, 44, 159, 1)","auxiliaryBg":"rgba(56, 33, 138, 1)","gradientBg":"linear-gradient(180deg, rgba(38, 0, 170, 1) 50%, rgba(38, 0, 170, 0) 100%)","otherGradientBg":"linear-gradient(90deg, rgba(104, 63, 199, 1)  50%, rgba(69, 44, 159, 1) 100%)"},"share_img":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/21/15/609ecebd9616fb1d032156f0be5c.png","awardRankingUserInfoBg":{"mainBg":"rgba(0,0,0,0.6)","auxiliaryBg":"rgba(0,0,0,0.3)"}},"start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","stations":[{"title":"零管-南山第二加油站","merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001}],"activityRuleType":2,"activity_rule":"日常回归-好友邀请","share_title":"日常回归-好友邀请","authorize_limit":1,"template_content":"1,2,3","arr_merchant_ids":["10002"]},"inviter_setting":{"inviter_qualification":1,"success_invite_condition":1,"user_group_rule":[],"enable_coupon":1,"coupon_ids_and_amount":[{"coupon_id":"10347","coupon_amount":1,"coupon_name":"创建优惠券-测试1"}],"enable_points":0,"enable_vip_grouth":0,"enable_step_reward":1,"step_reward":[{"step":1,"people_success_invited":"1","enable_coupon":0,"enable_points":1,"points":"10","enable_vip_grouth":1,"vip_grouth_val":"10"}]},"invitee_setting":{"invitee_qualification":2,"enable_coupon":0,"enable_points":1,"points":"20","enable_vip_grouth":1,"vip_grouth_val":"20"},"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I18" s="21" t="n"/>
+      <c r="J18" s="21" t="n"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N18" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': [{'activity_url': '/activityPackage/inviteFriends/index/index?activity_id=1042', 'qr_code': 'https://uat-authentication-1258898587.cos.ap-beijing.myqcloud.com/public/activity/invite/1042/333990ddd468fe2b222d634021bc.png', 'appid': 'wx73a8de5287159207', 'merchant_names': '零管-南山第二加油站'}], 'request_id': '265d18e06782ab246179ecc8780c67ba'}</t>
+        </is>
+      </c>
+      <c r="O18" s="87" t="inlineStr">
+        <is>
+          <t>1.103</t>
+        </is>
+      </c>
+      <c r="P18" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q18" s="85" t="inlineStr"/>
+      <c r="R18" s="85" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="36" customHeight="1" s="28">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>退出登录</t>
+        </is>
+      </c>
+      <c r="E19" s="12" t="inlineStr">
+        <is>
+          <t>/api/user/Login/logout</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G19" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>{"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I19" s="21" t="n"/>
+      <c r="J19" s="21" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N19" s="86" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '退出成功!', 'reason': '', 'data': [], 'request_id': '1f2c26544d15fda2b1ee3bdbeab17b01'}</t>
+        </is>
+      </c>
+      <c r="O19" s="88" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="P19" s="85" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q19" s="85" t="inlineStr"/>
+      <c r="R19" s="85" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -10195,10 +10739,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" outlineLevelCol="0"/>
@@ -10206,7 +10750,7 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="28" min="1" max="2"/>
     <col width="15" bestFit="1" customWidth="1" style="28" min="3" max="3"/>
     <col width="40.5" bestFit="1" customWidth="1" style="28" min="4" max="4"/>
-    <col width="36" bestFit="1" customWidth="1" style="28" min="5" max="5"/>
+    <col width="44.6640625" customWidth="1" style="28" min="5" max="5"/>
     <col width="8.83203125" bestFit="1" customWidth="1" style="28" min="6" max="6"/>
     <col width="55.6640625" bestFit="1" customWidth="1" style="28" min="7" max="7"/>
     <col width="97.1640625" bestFit="1" customWidth="1" style="69" min="8" max="8"/>
@@ -10232,7 +10776,7 @@
       </c>
       <c r="B1" s="82" t="inlineStr">
         <is>
-          <t>POS机接口冒烟测试</t>
+          <t>商户后台接口冒烟测试</t>
         </is>
       </c>
       <c r="C1" s="83" t="n"/>
@@ -10422,23 +10966,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N4" s="86" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5308', 'admin_name': 'hang081302', 'real_name': '\xa0王杭-南山第二', 'admin_type': '2', 'mobile': '15672655599', 'last_login_time': '1606894375', 'status': '1', 'create_time': '1605607335', 'update_time': '1606894375', 'token': 'aebe4cd5e9833946db8f59585386ddb9bae51e8b', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395'</t>
-        </is>
-      </c>
-      <c r="O4" s="87" t="inlineStr">
-        <is>
-          <t>0.913</t>
-        </is>
-      </c>
-      <c r="P4" s="85" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q4" s="85" t="inlineStr"/>
-      <c r="R4" s="85" t="inlineStr">
+      <c r="N4" s="58" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5344', 'admin_name': 'hang0813', 'real_name': '王杭-测试验收第一', 'admin_type': '2', 'mobile': '15717176224', 'last_login_time': '1606884984', 'status': '1', 'create_time': '1606364670', 'update_time': '1606884984', 'token': '34d5febe0d5193c3f17d459f1b2a4286b747962f', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'm</t>
+        </is>
+      </c>
+      <c r="O4" s="79" t="inlineStr">
+        <is>
+          <t>0.719</t>
+        </is>
+      </c>
+      <c r="P4" s="77" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q4" s="77" t="n"/>
+      <c r="R4" s="77" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -10494,23 +11038,23 @@
           <t>200</t>
         </is>
       </c>
-      <c r="N5" s="86" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '741', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '跨站消费加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '118', 'energy_number': '98(开票)'}, {'energy_id': '162', 'energy_number': '98(周末价)'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1593742898', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-07-03 10:21:38', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002', '10001', '10010', '10011', '10004', '10012', '20091'], 'merchant_names': {'10002': '零管-南山第二加油站', '10001': '能链第一加油站', '10010': '测试验收第二加油站', '10011': '测试验收第一加油站', '10004': '由连网络测试加油站', '10012': '费率专用', '20091': '南山第四加油站'}}, {'id': '717', 'merchant_type': '1001', 'merchant_id': '10002', 'name': '新卡多赠', 'type': 3, 'card_type': '1', 'style_type': '3', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '602', 'energy_number': '98(乙醇)'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '10', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 20, 'create_time': '1593412927', 'update_time': '1593723694', 'status': '0', 'is_del': '0', 'update_date': '2020-06-29 14:42:07', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10002'], 'merchant_names': {'10002': '零管-南山第二加油站'}}], 'request_id': '58c5fd95b5d9a51a59c6cbc5978c9d1d'}</t>
-        </is>
-      </c>
-      <c r="O5" s="87" t="inlineStr">
-        <is>
-          <t>0.390</t>
-        </is>
-      </c>
-      <c r="P5" s="85" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q5" s="85" t="inlineStr"/>
-      <c r="R5" s="85" t="inlineStr">
+      <c r="N5" s="78" t="inlineStr">
+        <is>
+          <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '847', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '兼容性测试', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/07/14/17/3978840cb6009104e9d01ec0aa1a.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1594717926', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-07-14 17:12:06', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '767', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '遍历33', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '22', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '22', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '12', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1594033462', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-07-06 19:04:22', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '737', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '双屏机跨站和首充多赠', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/07/02/23/3c035e84012939695ddec7aedbb7.jpeg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '500', 'min': '100'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '500', 'discount': '5', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 10, 'create_time': '1593703630', 'update_time': '1593706044', 'status': '0', 'is_del': '0', 'update_date': '2020-07-02 23:27:10', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10001', '10011', '10002'], 'merchant_names': {'10001': '能链第一加油站', '10011': '测试验收第一加油站', '10002': '零管-南山第二加油站'}}, {'id': '574', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '折扣卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 6, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': 7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1591771915', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-06-10 14:51:55', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '511', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '所得税', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '是', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1591167908', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-06-03 15:05:08', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '510', 'merchant_type': '1001', 'merchant_id': '10011', 'name': 'lin加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1591167836', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-06-03 15:03:56', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '导入数据功能测试', 'type': 3, 'card_type': '1', 'style_type': '2', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/6d4ce61b09ea92b3fd2cd6066c47.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '23', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1590036429', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-05-21 12:47:09', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '383', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '测试', 'type': 1, 'card_type': '1', 'style_type': '2', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/6d4ce61b09ea92b3fd2cd6066c47.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1589363448', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-05-13 17:50:48', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '292', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡功能测试验收010', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/30/00/1a0cda98e8b49c3f433029850769.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '2', 'could_use': ['2'], 'rule_des': '6665778899', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '0'}, 'discount_rule': [{'money': '99999.90', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.91', 'discount': 9.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.92', 'discount': 9.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.93', 'discount': 9.6, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.94', 'discount': 9.5, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.95', 'discount': 9.4, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.96', 'discount': 9.3, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.97', 'discount': 9.2, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.98', 'discount': 9.1, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1588175357', 'update_time': '1588178501', 'status': '1', 'is_del': '0', 'update_date': '2020-04-29 23:49:17', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '291', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡功能测试验收008', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/29/23/1a0cda98e8b49c3f433029850769.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 7.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 8.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.99', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '3999.99', 'discount': 6.6, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '4999.99', 'discount': 5.5, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '5999.99', 'discount': 8.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1588174085', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-04-29 23:28:05', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '288', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡功能测试007', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/29/22/6a96bee1b99d32346f911e1b16e4.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '299.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '399.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '3000', 'discount': '499.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '4000', 'discount': '599.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '5000', 'discount': '1999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '6000', 'discount': '2999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '7000', 'discount': '3999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1588170296', 'update_time': '1588171638', 'status': '0', 'is_del': '0', 'update_date': '2020-04-29 22:24:56', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '273', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡消费验证测试006', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/29/14/4118573a1e58bf486db278636651.jpeg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 5, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 5.1, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': 9.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '3000', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '4000', 'discount': 9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '5000', 'discount': 8.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '6000', 'discount': 8.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '7000', 'discount': 8.6, 'validateStatus</t>
+        </is>
+      </c>
+      <c r="O5" s="79" t="inlineStr">
+        <is>
+          <t>0.303</t>
+        </is>
+      </c>
+      <c r="P5" s="77" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="Q5" s="77" t="n"/>
+      <c r="R5" s="77" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -10529,17 +11073,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>营销活动</t>
+          <t>获取用户人群</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>创建充值送券活动</t>
+          <t>获取当前站用户人群</t>
         </is>
       </c>
       <c r="E6" s="12" t="inlineStr">
         <is>
-          <t>/api/activities/recharge_send_coupon_activity/create</t>
+          <t>/api/customer/customer_group/get_user_group</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -10554,63 +11098,215 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>{"activity_name":"日常回归-充值送券","user_limit":1,"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 12:30:59","activity_rule":[{"arr_oil_card_ids":[0],"recharge_award":[{"recharge_money":1,"arr_coupon_id_amount":{"10347":1}}]}],"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
+          <t>{"customer_group_type":1,"display_rules":"fixed_list,growth_list,user_group,user_tag","merchant_data":[{"merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001,"area_type":3,"key":"10002","_key":0,"title":"零管-南山第二加油站"}],"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
         </is>
       </c>
       <c r="I6" s="21" t="n"/>
       <c r="J6" s="21" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>默认</t>
-        </is>
-      </c>
+      <c r="K6" s="3" t="n"/>
       <c r="L6" s="3" t="n"/>
       <c r="M6" s="3" t="inlineStr">
         <is>
           <t>200</t>
         </is>
       </c>
-      <c r="N6" s="86" t="inlineStr">
-        <is>
-          <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '248'}, 'request_id': '93be11892c1fc1793f5f33a75ba8258c'}</t>
-        </is>
-      </c>
-      <c r="O6" s="87" t="inlineStr">
-        <is>
-          <t>0.491</t>
-        </is>
-      </c>
-      <c r="P6" s="85" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="Q6" s="85" t="inlineStr"/>
-      <c r="R6" s="85" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="N6" s="78" t="n"/>
+      <c r="O6" s="79" t="n"/>
+      <c r="P6" s="77" t="n"/>
+      <c r="Q6" s="77" t="n"/>
+      <c r="R6" s="77" t="n"/>
     </row>
     <row r="7" ht="36" customHeight="1" s="28">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="30" t="n"/>
-      <c r="H7" s="6" t="n"/>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>创建优惠券</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>/api/coupon/coupons/create_coupons</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G7" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>{"coupon_name":"日常回归-优惠券","coupon_type":1,"price_type":1,"merchant_id":"10002","merchant_type":1001,"coupon_price":"10","coupon_time_type":1,"coupon_start_time":"2020-12-01 00:00:00","coupon_end_time":"2020-12-01 23:59:59","platform":[1,2],"remark":"日常回归点-优惠券创建","desc":{},"amount_rule":[{"limit_type":1,"amount_limit":1,"product_id":["605","604","130","602","3","402","102","2","1","6","4","5","105","108"]}],"date_time_rule":[],"wx_coupons":{"color":"Color020"},"setData":0,"is_open_wx_coupon":2,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0"}</t>
+        </is>
+      </c>
       <c r="I7" s="21" t="n"/>
       <c r="J7" s="21" t="n"/>
       <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="n"/>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="67" t="n"/>
-      <c r="O7" s="68" t="n"/>
-      <c r="P7" s="66" t="n"/>
-      <c r="Q7" s="66" t="n"/>
-      <c r="R7" s="66" t="n"/>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N7" s="75" t="n"/>
+      <c r="O7" s="76" t="n"/>
+      <c r="P7" s="74" t="n"/>
+      <c r="Q7" s="74" t="n"/>
+      <c r="R7" s="74" t="n"/>
+    </row>
+    <row r="8" ht="36" customHeight="1" s="28">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>激活优惠券</t>
+        </is>
+      </c>
+      <c r="E8" s="12" t="inlineStr">
+        <is>
+          <t>/api/coupon/coupons/activation_coupon</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G8" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>{"coupon_id":"2506","merchant_type":"1001","merchant_id":"10001","token":"46c32cf591caf138619fbbb77f72ae8002f82ca1"}</t>
+        </is>
+      </c>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N8" s="75" t="n"/>
+      <c r="O8" s="76" t="n"/>
+      <c r="P8" s="74" t="n"/>
+      <c r="Q8" s="74" t="n"/>
+      <c r="R8" s="74" t="n"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" s="28">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>商户后台</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>营销活动</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>创建好友邀请活动</t>
+        </is>
+      </c>
+      <c r="E9" s="12" t="inlineStr">
+        <is>
+          <t>/api/invite/invite-activity/create</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="G9" s="30" t="inlineStr">
+        <is>
+          <t>{'Content-Type': 'application/json'}</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>{"activity":{"activity_name":"日常回归-好友邀请","template_ids":0,"page_style":{"homePage":{"headerImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/14/a3e81f14cfa8893cd46ee280c3c2.png","invitationImgList":{"inviteFriends":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/45639060966ff759e9e394e39ae7.png","faceInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/943b48bdd54e7bcb47f626f5789b.png","postersInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/0e196fdd10b1251b5b7eac59a200.png","postersBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/03/16/6836e862788acb42b67414f737b3.png"},"awardRanking":{"firstImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/b05a5c05d0d984f88ef20fae1bdb.png","secondImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/191c6363f9ac6c3972cfa5d82c28.png","thirdImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/ab5dc2d794029f74244cd2752686.png","defaultUserImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/02/16/76e411d0ab0791739669d470938e.png"}},"myRewardPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2019/12/12/11/6ca03a134e884e84e86e1427bb20.png"},"activityRulesPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/20/7a3f11f089d4ae09235d99928261.png"},"beInvitedPageBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191127/14/2ceccbf61842af679219859cb06d.png","beInvitedCouponsImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/27/15/399d3477946fb1bc53c5a09f3d57.png","icon":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/878aee8e814d3c213224e0e1bf80.png","fontColor":{"activityRulesColor":"#2600AA","shufflingAndReward":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"contentAndTitle":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"homePageBtnColor":"#733145","otherBtn":{"mainColor":"#2600AA","auxiliaryColor":"rgba(38, 0, 170, 0.6)"},"postersColor":"rgba(51, 51, 51, 1)","auxiliaryBtnColor":"#F0D701"},"btnBg":{"mainBg":"#F0D701","auxiliaryBg":"rgba(240, 215, 1, 0.5)"},"pageBg":{"invitationPageBg":"rgba(16, 1, 61, 1)","beInvitedpageBg":"rgba(16, 1, 61, 1)","rewardListBg":"rgba(16, 1, 61, 1)"},"panelBg":{"mainBg":"rgba(69, 44, 159, 1)","auxiliaryBg":"rgba(56, 33, 138, 1)","gradientBg":"linear-gradient(180deg, rgba(38, 0, 170, 1) 50%, rgba(38, 0, 170, 0) 100%)","otherGradientBg":"linear-gradient(90deg, rgba(104, 63, 199, 1)  50%, rgba(69, 44, 159, 1) 100%)"},"share_img":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/21/15/609ecebd9616fb1d032156f0be5c.png","awardRankingUserInfoBg":{"mainBg":"rgba(0,0,0,0.6)","auxiliaryBg":"rgba(0,0,0,0.3)"}},"start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","stations":[{"title":"零管-南山第二加油站","merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001}],"activityRuleType":2,"activity_rule":"日常回归-好友邀请","share_title":"日常回归-好友邀请","authorize_limit":1,"template_content":"1,2,3","arr_merchant_ids":["10002"]},"inviter_setting":{"inviter_qualification":1,"success_invite_condition":1,"user_group_rule":[],"enable_coupon":1,"coupon_ids_and_amount":[{"coupon_id":"10347","coupon_amount":1,"coupon_name":"创建优惠券-测试1"}],"enable_points":0,"enable_vip_grouth":0,"enable_step_reward":1,"step_reward":[{"step":1,"people_success_invited":"1","enable_coupon":0,"enable_points":1,"points":"10","enable_vip_grouth":1,"vip_grouth_val":"10"}]},"invitee_setting":{"invitee_qualification":2,"enable_coupon":0,"enable_points":1,"points":"20","enable_vip_grouth":1,"vip_grouth_val":"20"},"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+        </is>
+      </c>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N9" s="71" t="n"/>
+      <c r="O9" s="72" t="n"/>
+      <c r="P9" s="70" t="n"/>
+      <c r="Q9" s="73" t="n"/>
+      <c r="R9" s="73" t="n"/>
+    </row>
+    <row r="10" ht="36" customHeight="1" s="28">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="30" t="n"/>
+      <c r="H10" s="6" t="n"/>
+      <c r="I10" s="21" t="n"/>
+      <c r="J10" s="21" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="67" t="n"/>
+      <c r="O10" s="68" t="n"/>
+      <c r="P10" s="66" t="n"/>
+      <c r="Q10" s="66" t="n"/>
+      <c r="R10" s="66" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
